--- a/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Identificación, Evaluación y análisis de riesgos - Anexo I.xlsx
+++ b/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/Identificación, Evaluación y análisis de riesgos - Anexo I.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malen\OneDrive\Desktop\LDS\Testify\Fases_de_desarrollo\01-Inicio\05- Gestion de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0317988-16D0-4E5E-B0D7-26D9EC268501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Análisis!$A$1:$F$480</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgad679imlrfYSw7pMiFqkcSKTmXw=="/>
@@ -236,12 +237,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="\R\K##"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +321,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -348,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,49 +841,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,10 +881,53 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,26 +1459,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1480,7 +1488,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1490,7 +1498,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1500,7 +1508,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1510,7 +1518,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1520,7 +1528,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1530,7 +1538,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1620,7 +1628,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1630,7 +1638,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1640,7 +1648,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="14.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1650,7 +1658,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="14.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1660,7 +1668,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="14.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1670,7 +1678,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2992,38 +3000,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.4">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="97" t="s">
         <v>65</v>
       </c>
       <c r="G1" s="8"/>
@@ -3031,10 +3039,10 @@
       <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="9">
         <v>0</v>
       </c>
@@ -3056,21 +3064,21 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="L2" s="95" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="117" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="113"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="12">
         <v>2</v>
       </c>
@@ -3081,19 +3089,19 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="95" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="93" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="16">
@@ -3106,13 +3114,13 @@
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="116" t="s">
+      <c r="L4" s="95" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A5" s="93"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
@@ -3125,13 +3133,13 @@
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="116" t="s">
+      <c r="L5" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
@@ -3144,8 +3152,8 @@
       <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
@@ -3158,8 +3166,8 @@
       <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
@@ -3172,8 +3180,8 @@
       <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
@@ -3186,8 +3194,8 @@
       <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
@@ -3200,8 +3208,8 @@
       <c r="L10" s="90"/>
     </row>
     <row r="11" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
@@ -3214,8 +3222,8 @@
       <c r="L11" s="90"/>
     </row>
     <row r="12" spans="1:26" ht="63.75" customHeight="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
@@ -3228,8 +3236,8 @@
       <c r="L12" s="90"/>
     </row>
     <row r="13" spans="1:26" ht="48" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
@@ -3242,8 +3250,8 @@
       <c r="L13" s="90"/>
     </row>
     <row r="14" spans="1:26" ht="73.5" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
@@ -3256,8 +3264,8 @@
       <c r="L14" s="90"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -3286,8 +3294,8 @@
       <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="20"/>
@@ -3300,8 +3308,8 @@
       <c r="L16" s="90"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -3330,8 +3338,8 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
@@ -3394,14 +3402,14 @@
       <c r="L21" s="90"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="38">
         <f>G19/G20*G21</f>
         <v>4.166666666666667</v>
@@ -3423,43 +3431,43 @@
       <c r="L23" s="90"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="34"/>
       <c r="L24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="112"/>
       <c r="H25" s="34"/>
       <c r="L25" s="90"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="102"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="116"/>
       <c r="H26" s="34"/>
       <c r="L26" s="90"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="92"/>
+      <c r="B27" s="106"/>
       <c r="C27" s="9">
         <v>0</v>
       </c>
@@ -3480,14 +3488,14 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="30" customHeight="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="92"/>
+      <c r="B28" s="106"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="92" t="s">
         <v>57</v>
       </c>
       <c r="G28" s="12">
@@ -3517,13 +3525,13 @@
       <c r="Z28" s="42"/>
     </row>
     <row r="29" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="92"/>
+      <c r="B29" s="106"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="94" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="16"/>
@@ -3554,15 +3562,15 @@
       <c r="Z29" s="42"/>
     </row>
     <row r="30" spans="1:26" ht="71.25" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="92"/>
+      <c r="B30" s="106"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="115"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
         <v>1</v>
@@ -3591,8 +3599,8 @@
       <c r="Z30" s="42"/>
     </row>
     <row r="31" spans="1:26" ht="30" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
@@ -3622,8 +3630,8 @@
       <c r="Z31" s="42"/>
     </row>
     <row r="32" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
@@ -3653,8 +3661,8 @@
       <c r="Z32" s="42"/>
     </row>
     <row r="33" spans="1:26" ht="27" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="106"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
@@ -3684,8 +3692,8 @@
       <c r="Z33" s="42"/>
     </row>
     <row r="34" spans="1:26" ht="30" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="106"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
@@ -3715,8 +3723,8 @@
       <c r="Z34" s="42"/>
     </row>
     <row r="35" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="106"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -3746,8 +3754,8 @@
       <c r="Z35" s="42"/>
     </row>
     <row r="36" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -3777,8 +3785,8 @@
       <c r="Z36" s="42"/>
     </row>
     <row r="37" spans="1:26" ht="55.5" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="106"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -3808,8 +3816,8 @@
       <c r="Z37" s="42"/>
     </row>
     <row r="38" spans="1:26" ht="30" customHeight="1">
-      <c r="A38" s="94"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="43"/>
       <c r="D38" s="44"/>
       <c r="E38" s="43"/>
@@ -3839,8 +3847,8 @@
       <c r="Z38" s="42"/>
     </row>
     <row r="39" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
       <c r="C39" s="43"/>
       <c r="D39" s="44"/>
       <c r="E39" s="43"/>
@@ -3870,8 +3878,8 @@
       <c r="Z39" s="42"/>
     </row>
     <row r="40" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A40" s="94"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
       <c r="E40" s="43"/>
@@ -3901,8 +3909,8 @@
       <c r="Z40" s="42"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="20"/>
@@ -3915,8 +3923,8 @@
       <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="20"/>
@@ -3929,8 +3937,8 @@
       <c r="I42" s="42"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
       <c r="E43" s="20"/>
@@ -3943,8 +3951,8 @@
       <c r="I43" s="42"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="94"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
       <c r="E44" s="20"/>
@@ -3957,8 +3965,8 @@
       <c r="I44" s="42"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="92"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
       <c r="E45" s="20"/>
@@ -3971,8 +3979,8 @@
       <c r="I45" s="42"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="106"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="20"/>
@@ -3985,8 +3993,8 @@
       <c r="I46" s="42"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="20"/>
@@ -3999,8 +4007,8 @@
       <c r="I47" s="42"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="94"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="106"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
       <c r="E48" s="20"/>
@@ -4063,14 +4071,14 @@
       <c r="I51" s="42"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="97"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="109"/>
       <c r="G52" s="38">
         <f>G49/G50*G51</f>
         <v>3.333333333333333</v>
@@ -4092,40 +4100,40 @@
       <c r="I53" s="42"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="100"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="112"/>
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="101"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="100"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="34"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="102"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="104"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="116"/>
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="92"/>
+      <c r="B57" s="106"/>
       <c r="C57" s="9">
         <v>0</v>
       </c>
@@ -4146,14 +4154,14 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="92"/>
+      <c r="B58" s="106"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="113" t="s">
+      <c r="F58" s="92" t="s">
         <v>57</v>
       </c>
       <c r="G58" s="12">
@@ -4183,8 +4191,8 @@
       <c r="Z58" s="42"/>
     </row>
     <row r="59" spans="1:26" ht="54" customHeight="1">
-      <c r="A59" s="109"/>
-      <c r="B59" s="92"/>
+      <c r="A59" s="122"/>
+      <c r="B59" s="106"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
@@ -4214,8 +4222,8 @@
       <c r="Z59" s="42"/>
     </row>
     <row r="60" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A60" s="109"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="106"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
       <c r="E60" s="18"/>
@@ -4245,8 +4253,8 @@
       <c r="Z60" s="42"/>
     </row>
     <row r="61" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A61" s="93"/>
-      <c r="B61" s="92"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
       <c r="E61" s="18"/>
@@ -4276,8 +4284,8 @@
       <c r="Z61" s="42"/>
     </row>
     <row r="62" spans="1:26" ht="30" customHeight="1">
-      <c r="A62" s="93"/>
-      <c r="B62" s="92"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="106"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
       <c r="E62" s="18"/>
@@ -4307,8 +4315,8 @@
       <c r="Z62" s="42"/>
     </row>
     <row r="63" spans="1:26" ht="30" customHeight="1">
-      <c r="A63" s="93"/>
-      <c r="B63" s="92"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="106"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18"/>
@@ -4338,8 +4346,8 @@
       <c r="Z63" s="42"/>
     </row>
     <row r="64" spans="1:26" ht="42" customHeight="1">
-      <c r="A64" s="93"/>
-      <c r="B64" s="92"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="106"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17"/>
       <c r="E64" s="18"/>
@@ -4369,8 +4377,8 @@
       <c r="Z64" s="42"/>
     </row>
     <row r="65" spans="1:26" ht="30" customHeight="1">
-      <c r="A65" s="93"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="106"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17"/>
       <c r="E65" s="18"/>
@@ -4400,8 +4408,8 @@
       <c r="Z65" s="42"/>
     </row>
     <row r="66" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A66" s="93"/>
-      <c r="B66" s="92"/>
+      <c r="A66" s="119"/>
+      <c r="B66" s="106"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17"/>
       <c r="E66" s="18"/>
@@ -4431,8 +4439,8 @@
       <c r="Z66" s="42"/>
     </row>
     <row r="67" spans="1:26" ht="54.75" customHeight="1">
-      <c r="A67" s="93"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="119"/>
+      <c r="B67" s="106"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="18"/>
@@ -4462,8 +4470,8 @@
       <c r="Z67" s="42"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="92"/>
+      <c r="A68" s="119"/>
+      <c r="B68" s="106"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18"/>
@@ -4475,8 +4483,8 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="30" customHeight="1">
-      <c r="A69" s="94"/>
-      <c r="B69" s="92"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="106"/>
       <c r="C69" s="46"/>
       <c r="D69" s="47"/>
       <c r="E69" s="48"/>
@@ -4506,8 +4514,8 @@
       <c r="Z69" s="42"/>
     </row>
     <row r="70" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A70" s="94"/>
-      <c r="B70" s="92"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="106"/>
       <c r="C70" s="46"/>
       <c r="D70" s="47"/>
       <c r="E70" s="48"/>
@@ -4537,8 +4545,8 @@
       <c r="Z70" s="42"/>
     </row>
     <row r="71" spans="1:26" ht="54.75" customHeight="1">
-      <c r="A71" s="94"/>
-      <c r="B71" s="92"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="106"/>
       <c r="C71" s="43"/>
       <c r="D71" s="44"/>
       <c r="E71" s="43"/>
@@ -4568,8 +4576,8 @@
       <c r="Z71" s="42"/>
     </row>
     <row r="72" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A72" s="94"/>
-      <c r="B72" s="92"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="106"/>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
       <c r="E72" s="43"/>
@@ -4599,8 +4607,8 @@
       <c r="Z72" s="42"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A73" s="94"/>
-      <c r="B73" s="92"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="106"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
@@ -4612,8 +4620,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="94"/>
-      <c r="B74" s="92"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="106"/>
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
@@ -4625,8 +4633,8 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="94"/>
-      <c r="B75" s="92"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="106"/>
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
@@ -4638,8 +4646,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A76" s="94"/>
-      <c r="B76" s="92"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
@@ -4651,8 +4659,8 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="94"/>
-      <c r="B77" s="92"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="106"/>
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
@@ -4711,14 +4719,14 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="97"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="109"/>
       <c r="G81" s="38">
         <f>G78/G79*G80</f>
         <v>4</v>
@@ -4738,40 +4746,40 @@
       <c r="H82" s="40"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A83" s="98"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="99"/>
-      <c r="G83" s="100"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
+      <c r="G83" s="112"/>
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A84" s="101"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="100"/>
+      <c r="A84" s="113"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="112"/>
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A85" s="102"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="104"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="115"/>
+      <c r="D85" s="115"/>
+      <c r="E85" s="115"/>
+      <c r="F85" s="115"/>
+      <c r="G85" s="116"/>
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="A86" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="92"/>
+      <c r="B86" s="106"/>
       <c r="C86" s="9">
         <v>0</v>
       </c>
@@ -4792,13 +4800,13 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A87" s="110" t="s">
+      <c r="A87" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="111"/>
+      <c r="B87" s="125"/>
       <c r="C87" s="22"/>
       <c r="D87" s="49"/>
-      <c r="E87" s="120" t="s">
+      <c r="E87" s="99" t="s">
         <v>57</v>
       </c>
       <c r="F87" s="22"/>
@@ -4829,14 +4837,14 @@
       <c r="Z87" s="42"/>
     </row>
     <row r="88" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B88" s="111"/>
+      <c r="B88" s="125"/>
       <c r="C88" s="46"/>
       <c r="D88" s="47"/>
       <c r="E88" s="48"/>
-      <c r="F88" s="121" t="s">
+      <c r="F88" s="100" t="s">
         <v>57</v>
       </c>
       <c r="G88" s="46">
@@ -4866,13 +4874,13 @@
       <c r="Z88" s="42"/>
     </row>
     <row r="89" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A89" s="110" t="s">
+      <c r="A89" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="111"/>
+      <c r="B89" s="125"/>
       <c r="C89" s="46"/>
       <c r="D89" s="47"/>
-      <c r="E89" s="122" t="s">
+      <c r="E89" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F89" s="46"/>
@@ -4903,13 +4911,13 @@
       <c r="Z89" s="42"/>
     </row>
     <row r="90" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B90" s="92"/>
+      <c r="B90" s="106"/>
       <c r="C90" s="46"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="122" t="s">
+      <c r="D90" s="102"/>
+      <c r="E90" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F90" s="46"/>
@@ -4940,13 +4948,13 @@
       <c r="Z90" s="42"/>
     </row>
     <row r="91" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="92"/>
+      <c r="B91" s="106"/>
       <c r="C91" s="46"/>
       <c r="D91" s="47"/>
-      <c r="E91" s="122" t="s">
+      <c r="E91" s="101" t="s">
         <v>57</v>
       </c>
       <c r="F91" s="46"/>
@@ -4977,14 +4985,14 @@
       <c r="Z91" s="42"/>
     </row>
     <row r="92" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="92"/>
+      <c r="B92" s="106"/>
       <c r="C92" s="46"/>
       <c r="D92" s="47"/>
       <c r="E92" s="48"/>
-      <c r="F92" s="121" t="s">
+      <c r="F92" s="100" t="s">
         <v>57</v>
       </c>
       <c r="G92" s="46">
@@ -5014,8 +5022,8 @@
       <c r="Z92" s="42"/>
     </row>
     <row r="93" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A93" s="94"/>
-      <c r="B93" s="92"/>
+      <c r="A93" s="105"/>
+      <c r="B93" s="106"/>
       <c r="C93" s="46"/>
       <c r="D93" s="47"/>
       <c r="E93" s="48"/>
@@ -5045,8 +5053,8 @@
       <c r="Z93" s="42"/>
     </row>
     <row r="94" spans="1:26" ht="58.5" customHeight="1">
-      <c r="A94" s="94"/>
-      <c r="B94" s="92"/>
+      <c r="A94" s="105"/>
+      <c r="B94" s="106"/>
       <c r="C94" s="46"/>
       <c r="D94" s="47"/>
       <c r="E94" s="48"/>
@@ -5076,8 +5084,8 @@
       <c r="Z94" s="42"/>
     </row>
     <row r="95" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A95" s="94"/>
-      <c r="B95" s="92"/>
+      <c r="A95" s="105"/>
+      <c r="B95" s="106"/>
       <c r="C95" s="46"/>
       <c r="D95" s="47"/>
       <c r="E95" s="48"/>
@@ -5107,8 +5115,8 @@
       <c r="Z95" s="42"/>
     </row>
     <row r="96" spans="1:26" ht="60.75" customHeight="1">
-      <c r="A96" s="94"/>
-      <c r="B96" s="92"/>
+      <c r="A96" s="105"/>
+      <c r="B96" s="106"/>
       <c r="C96" s="46"/>
       <c r="D96" s="47"/>
       <c r="E96" s="48"/>
@@ -5138,8 +5146,8 @@
       <c r="Z96" s="42"/>
     </row>
     <row r="97" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A97" s="94"/>
-      <c r="B97" s="92"/>
+      <c r="A97" s="105"/>
+      <c r="B97" s="106"/>
       <c r="C97" s="46"/>
       <c r="D97" s="47"/>
       <c r="E97" s="48"/>
@@ -5169,8 +5177,8 @@
       <c r="Z97" s="42"/>
     </row>
     <row r="98" spans="1:26" ht="45" customHeight="1">
-      <c r="A98" s="94"/>
-      <c r="B98" s="92"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="106"/>
       <c r="C98" s="46"/>
       <c r="D98" s="47"/>
       <c r="E98" s="48"/>
@@ -5200,8 +5208,8 @@
       <c r="Z98" s="42"/>
     </row>
     <row r="99" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A99" s="94"/>
-      <c r="B99" s="92"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="106"/>
       <c r="C99" s="46"/>
       <c r="D99" s="47"/>
       <c r="E99" s="48"/>
@@ -5231,8 +5239,8 @@
       <c r="Z99" s="42"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A100" s="94"/>
-      <c r="B100" s="92"/>
+      <c r="A100" s="105"/>
+      <c r="B100" s="106"/>
       <c r="C100" s="46"/>
       <c r="D100" s="47"/>
       <c r="E100" s="48"/>
@@ -5244,8 +5252,8 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A101" s="94"/>
-      <c r="B101" s="92"/>
+      <c r="A101" s="105"/>
+      <c r="B101" s="106"/>
       <c r="C101" s="46"/>
       <c r="D101" s="47"/>
       <c r="E101" s="48"/>
@@ -5257,8 +5265,8 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A102" s="94"/>
-      <c r="B102" s="92"/>
+      <c r="A102" s="105"/>
+      <c r="B102" s="106"/>
       <c r="C102" s="46"/>
       <c r="D102" s="47"/>
       <c r="E102" s="48"/>
@@ -5288,8 +5296,8 @@
       <c r="Z102" s="42"/>
     </row>
     <row r="103" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A103" s="94"/>
-      <c r="B103" s="92"/>
+      <c r="A103" s="105"/>
+      <c r="B103" s="106"/>
       <c r="C103" s="46"/>
       <c r="D103" s="47"/>
       <c r="E103" s="48"/>
@@ -5319,8 +5327,8 @@
       <c r="Z103" s="42"/>
     </row>
     <row r="104" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A104" s="94"/>
-      <c r="B104" s="92"/>
+      <c r="A104" s="105"/>
+      <c r="B104" s="106"/>
       <c r="C104" s="46"/>
       <c r="D104" s="47"/>
       <c r="E104" s="48"/>
@@ -5350,8 +5358,8 @@
       <c r="Z104" s="42"/>
     </row>
     <row r="105" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A105" s="94"/>
-      <c r="B105" s="92"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="106"/>
       <c r="C105" s="46"/>
       <c r="D105" s="47"/>
       <c r="E105" s="48"/>
@@ -5381,8 +5389,8 @@
       <c r="Z105" s="42"/>
     </row>
     <row r="106" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A106" s="105"/>
-      <c r="B106" s="92"/>
+      <c r="A106" s="123"/>
+      <c r="B106" s="106"/>
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
@@ -5412,8 +5420,8 @@
       <c r="Z106" s="42"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A107" s="94"/>
-      <c r="B107" s="92"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="106"/>
       <c r="C107" s="46"/>
       <c r="D107" s="47"/>
       <c r="E107" s="48"/>
@@ -5425,8 +5433,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A108" s="94"/>
-      <c r="B108" s="92"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="106"/>
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
@@ -5438,8 +5446,8 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A109" s="94"/>
-      <c r="B109" s="92"/>
+      <c r="A109" s="105"/>
+      <c r="B109" s="106"/>
       <c r="C109" s="46"/>
       <c r="D109" s="47"/>
       <c r="E109" s="48"/>
@@ -5451,8 +5459,8 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A110" s="94"/>
-      <c r="B110" s="92"/>
+      <c r="A110" s="105"/>
+      <c r="B110" s="106"/>
       <c r="C110" s="46"/>
       <c r="D110" s="47"/>
       <c r="E110" s="48"/>
@@ -5464,8 +5472,8 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A111" s="94"/>
-      <c r="B111" s="92"/>
+      <c r="A111" s="105"/>
+      <c r="B111" s="106"/>
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
@@ -5524,14 +5532,14 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A115" s="95" t="s">
+      <c r="A115" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="96"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
-      <c r="E115" s="96"/>
-      <c r="F115" s="97"/>
+      <c r="B115" s="108"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="109"/>
       <c r="G115" s="38">
         <f>G112/G113*G114</f>
         <v>3.1111111111111112</v>
@@ -5551,40 +5559,40 @@
       <c r="H116" s="40"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A117" s="98"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99"/>
-      <c r="F117" s="99"/>
-      <c r="G117" s="100"/>
+      <c r="A117" s="110"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="111"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="111"/>
+      <c r="F117" s="111"/>
+      <c r="G117" s="112"/>
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A118" s="101"/>
-      <c r="B118" s="99"/>
-      <c r="C118" s="99"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="99"/>
-      <c r="F118" s="99"/>
-      <c r="G118" s="100"/>
+      <c r="A118" s="113"/>
+      <c r="B118" s="111"/>
+      <c r="C118" s="111"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
+      <c r="G118" s="112"/>
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A119" s="102"/>
-      <c r="B119" s="103"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="104"/>
+      <c r="A119" s="114"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
+      <c r="G119" s="116"/>
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A120" s="91" t="s">
+      <c r="A120" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="92"/>
+      <c r="B120" s="106"/>
       <c r="C120" s="9">
         <v>0</v>
       </c>
@@ -5605,12 +5613,12 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="52.5" customHeight="1">
-      <c r="A121" s="109" t="s">
+      <c r="A121" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="92"/>
+      <c r="B121" s="106"/>
       <c r="C121" s="50"/>
-      <c r="D121" s="124" t="s">
+      <c r="D121" s="103" t="s">
         <v>57</v>
       </c>
       <c r="E121" s="51"/>
@@ -5642,13 +5650,13 @@
       <c r="Z121" s="42"/>
     </row>
     <row r="122" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A122" s="109" t="s">
+      <c r="A122" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="92"/>
+      <c r="B122" s="106"/>
       <c r="C122" s="52"/>
       <c r="D122" s="53"/>
-      <c r="E122" s="125" t="s">
+      <c r="E122" s="104" t="s">
         <v>57</v>
       </c>
       <c r="F122" s="52"/>
@@ -5679,8 +5687,8 @@
       <c r="Z122" s="42"/>
     </row>
     <row r="123" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A123" s="94"/>
-      <c r="B123" s="92"/>
+      <c r="A123" s="105"/>
+      <c r="B123" s="106"/>
       <c r="C123" s="54"/>
       <c r="D123" s="55"/>
       <c r="E123" s="54"/>
@@ -5710,8 +5718,8 @@
       <c r="Z123" s="42"/>
     </row>
     <row r="124" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A124" s="94"/>
-      <c r="B124" s="92"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="106"/>
       <c r="C124" s="54"/>
       <c r="D124" s="55"/>
       <c r="E124" s="54"/>
@@ -5741,8 +5749,8 @@
       <c r="Z124" s="42"/>
     </row>
     <row r="125" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A125" s="94"/>
-      <c r="B125" s="92"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="106"/>
       <c r="C125" s="54"/>
       <c r="D125" s="55"/>
       <c r="E125" s="54"/>
@@ -5772,8 +5780,8 @@
       <c r="Z125" s="42"/>
     </row>
     <row r="126" spans="1:26" ht="33" customHeight="1">
-      <c r="A126" s="94"/>
-      <c r="B126" s="92"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="106"/>
       <c r="C126" s="54"/>
       <c r="D126" s="55"/>
       <c r="E126" s="54"/>
@@ -5803,8 +5811,8 @@
       <c r="Z126" s="42"/>
     </row>
     <row r="127" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A127" s="94"/>
-      <c r="B127" s="92"/>
+      <c r="A127" s="105"/>
+      <c r="B127" s="106"/>
       <c r="C127" s="54"/>
       <c r="D127" s="55"/>
       <c r="E127" s="54"/>
@@ -5834,8 +5842,8 @@
       <c r="Z127" s="42"/>
     </row>
     <row r="128" spans="1:26" ht="45" customHeight="1">
-      <c r="A128" s="94"/>
-      <c r="B128" s="92"/>
+      <c r="A128" s="105"/>
+      <c r="B128" s="106"/>
       <c r="C128" s="54"/>
       <c r="D128" s="55"/>
       <c r="E128" s="54"/>
@@ -5865,8 +5873,8 @@
       <c r="Z128" s="42"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A129" s="94"/>
-      <c r="B129" s="92"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="106"/>
       <c r="C129" s="54"/>
       <c r="D129" s="55"/>
       <c r="E129" s="54"/>
@@ -5896,8 +5904,8 @@
       <c r="Z129" s="42"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A130" s="94"/>
-      <c r="B130" s="92"/>
+      <c r="A130" s="105"/>
+      <c r="B130" s="106"/>
       <c r="C130" s="54"/>
       <c r="D130" s="55"/>
       <c r="E130" s="54"/>
@@ -5927,8 +5935,8 @@
       <c r="Z130" s="42"/>
     </row>
     <row r="131" spans="1:26" ht="30" customHeight="1">
-      <c r="A131" s="94"/>
-      <c r="B131" s="92"/>
+      <c r="A131" s="105"/>
+      <c r="B131" s="106"/>
       <c r="C131" s="54"/>
       <c r="D131" s="55"/>
       <c r="E131" s="54"/>
@@ -5958,8 +5966,8 @@
       <c r="Z131" s="42"/>
     </row>
     <row r="132" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A132" s="94"/>
-      <c r="B132" s="92"/>
+      <c r="A132" s="105"/>
+      <c r="B132" s="106"/>
       <c r="C132" s="54"/>
       <c r="D132" s="55"/>
       <c r="E132" s="54"/>
@@ -5989,8 +5997,8 @@
       <c r="Z132" s="42"/>
     </row>
     <row r="133" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A133" s="94"/>
-      <c r="B133" s="92"/>
+      <c r="A133" s="105"/>
+      <c r="B133" s="106"/>
       <c r="C133" s="54"/>
       <c r="D133" s="55"/>
       <c r="E133" s="54"/>
@@ -6020,8 +6028,8 @@
       <c r="Z133" s="42"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A134" s="94"/>
-      <c r="B134" s="92"/>
+      <c r="A134" s="105"/>
+      <c r="B134" s="106"/>
       <c r="C134" s="20"/>
       <c r="D134" s="21"/>
       <c r="E134" s="20"/>
@@ -6033,8 +6041,8 @@
       </c>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A135" s="94"/>
-      <c r="B135" s="92"/>
+      <c r="A135" s="105"/>
+      <c r="B135" s="106"/>
       <c r="C135" s="20"/>
       <c r="D135" s="21"/>
       <c r="E135" s="20"/>
@@ -6046,8 +6054,8 @@
       </c>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A136" s="94"/>
-      <c r="B136" s="92"/>
+      <c r="A136" s="105"/>
+      <c r="B136" s="106"/>
       <c r="C136" s="20"/>
       <c r="D136" s="21"/>
       <c r="E136" s="20"/>
@@ -6059,8 +6067,8 @@
       </c>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A137" s="94"/>
-      <c r="B137" s="92"/>
+      <c r="A137" s="105"/>
+      <c r="B137" s="106"/>
       <c r="C137" s="20"/>
       <c r="D137" s="21"/>
       <c r="E137" s="20"/>
@@ -6072,8 +6080,8 @@
       </c>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A138" s="94"/>
-      <c r="B138" s="92"/>
+      <c r="A138" s="105"/>
+      <c r="B138" s="106"/>
       <c r="C138" s="20"/>
       <c r="D138" s="21"/>
       <c r="E138" s="20"/>
@@ -6085,8 +6093,8 @@
       </c>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A139" s="94"/>
-      <c r="B139" s="92"/>
+      <c r="A139" s="105"/>
+      <c r="B139" s="106"/>
       <c r="C139" s="20"/>
       <c r="D139" s="21"/>
       <c r="E139" s="20"/>
@@ -6098,8 +6106,8 @@
       </c>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A140" s="94"/>
-      <c r="B140" s="92"/>
+      <c r="A140" s="105"/>
+      <c r="B140" s="106"/>
       <c r="C140" s="20"/>
       <c r="D140" s="21"/>
       <c r="E140" s="20"/>
@@ -6111,8 +6119,8 @@
       </c>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A141" s="94"/>
-      <c r="B141" s="92"/>
+      <c r="A141" s="105"/>
+      <c r="B141" s="106"/>
       <c r="C141" s="20"/>
       <c r="D141" s="21"/>
       <c r="E141" s="20"/>
@@ -6171,14 +6179,14 @@
       <c r="H144" s="34"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A145" s="95" t="s">
+      <c r="A145" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B145" s="96"/>
-      <c r="C145" s="96"/>
-      <c r="D145" s="96"/>
-      <c r="E145" s="96"/>
-      <c r="F145" s="97"/>
+      <c r="B145" s="108"/>
+      <c r="C145" s="108"/>
+      <c r="D145" s="108"/>
+      <c r="E145" s="108"/>
+      <c r="F145" s="109"/>
       <c r="G145" s="38">
         <f>G142/G143*G144</f>
         <v>1.5</v>
@@ -6198,40 +6206,40 @@
       <c r="H146" s="40"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A147" s="98"/>
-      <c r="B147" s="99"/>
-      <c r="C147" s="99"/>
-      <c r="D147" s="99"/>
-      <c r="E147" s="99"/>
-      <c r="F147" s="99"/>
-      <c r="G147" s="100"/>
+      <c r="A147" s="110"/>
+      <c r="B147" s="111"/>
+      <c r="C147" s="111"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="111"/>
+      <c r="F147" s="111"/>
+      <c r="G147" s="112"/>
       <c r="H147" s="34"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A148" s="101"/>
-      <c r="B148" s="99"/>
-      <c r="C148" s="99"/>
-      <c r="D148" s="99"/>
-      <c r="E148" s="99"/>
-      <c r="F148" s="99"/>
-      <c r="G148" s="100"/>
+      <c r="A148" s="113"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="111"/>
+      <c r="D148" s="111"/>
+      <c r="E148" s="111"/>
+      <c r="F148" s="111"/>
+      <c r="G148" s="112"/>
       <c r="H148" s="34"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A149" s="102"/>
-      <c r="B149" s="103"/>
-      <c r="C149" s="103"/>
-      <c r="D149" s="103"/>
-      <c r="E149" s="103"/>
-      <c r="F149" s="103"/>
-      <c r="G149" s="104"/>
+      <c r="A149" s="114"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="115"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="115"/>
+      <c r="F149" s="115"/>
+      <c r="G149" s="116"/>
       <c r="H149" s="34"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A150" s="91" t="s">
+      <c r="A150" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B150" s="92"/>
+      <c r="B150" s="106"/>
       <c r="C150" s="9">
         <v>0</v>
       </c>
@@ -6252,8 +6260,8 @@
       </c>
     </row>
     <row r="151" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A151" s="93"/>
-      <c r="B151" s="92"/>
+      <c r="A151" s="119"/>
+      <c r="B151" s="106"/>
       <c r="C151" s="12"/>
       <c r="D151" s="13"/>
       <c r="E151" s="14"/>
@@ -6283,8 +6291,8 @@
       <c r="Z151" s="42"/>
     </row>
     <row r="152" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A152" s="93"/>
-      <c r="B152" s="92"/>
+      <c r="A152" s="119"/>
+      <c r="B152" s="106"/>
       <c r="C152" s="16"/>
       <c r="D152" s="17"/>
       <c r="E152" s="18"/>
@@ -6314,8 +6322,8 @@
       <c r="Z152" s="42"/>
     </row>
     <row r="153" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A153" s="94"/>
-      <c r="B153" s="92"/>
+      <c r="A153" s="105"/>
+      <c r="B153" s="106"/>
       <c r="C153" s="43"/>
       <c r="D153" s="44"/>
       <c r="E153" s="43"/>
@@ -6345,8 +6353,8 @@
       <c r="Z153" s="42"/>
     </row>
     <row r="154" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A154" s="94"/>
-      <c r="B154" s="92"/>
+      <c r="A154" s="105"/>
+      <c r="B154" s="106"/>
       <c r="C154" s="43"/>
       <c r="D154" s="44"/>
       <c r="E154" s="43"/>
@@ -6376,8 +6384,8 @@
       <c r="Z154" s="42"/>
     </row>
     <row r="155" spans="1:26" ht="48" customHeight="1">
-      <c r="A155" s="94"/>
-      <c r="B155" s="92"/>
+      <c r="A155" s="105"/>
+      <c r="B155" s="106"/>
       <c r="C155" s="43"/>
       <c r="D155" s="44"/>
       <c r="E155" s="43"/>
@@ -6407,8 +6415,8 @@
       <c r="Z155" s="42"/>
     </row>
     <row r="156" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A156" s="94"/>
-      <c r="B156" s="92"/>
+      <c r="A156" s="105"/>
+      <c r="B156" s="106"/>
       <c r="C156" s="43"/>
       <c r="D156" s="44"/>
       <c r="E156" s="43"/>
@@ -6438,8 +6446,8 @@
       <c r="Z156" s="42"/>
     </row>
     <row r="157" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A157" s="94"/>
-      <c r="B157" s="92"/>
+      <c r="A157" s="105"/>
+      <c r="B157" s="106"/>
       <c r="C157" s="43"/>
       <c r="D157" s="44"/>
       <c r="E157" s="43"/>
@@ -6469,8 +6477,8 @@
       <c r="Z157" s="42"/>
     </row>
     <row r="158" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A158" s="94"/>
-      <c r="B158" s="92"/>
+      <c r="A158" s="105"/>
+      <c r="B158" s="106"/>
       <c r="C158" s="43"/>
       <c r="D158" s="44"/>
       <c r="E158" s="43"/>
@@ -6500,8 +6508,8 @@
       <c r="Z158" s="42"/>
     </row>
     <row r="159" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A159" s="94"/>
-      <c r="B159" s="92"/>
+      <c r="A159" s="105"/>
+      <c r="B159" s="106"/>
       <c r="C159" s="43"/>
       <c r="D159" s="44"/>
       <c r="E159" s="43"/>
@@ -6531,8 +6539,8 @@
       <c r="Z159" s="42"/>
     </row>
     <row r="160" spans="1:26" ht="48" customHeight="1">
-      <c r="A160" s="94"/>
-      <c r="B160" s="92"/>
+      <c r="A160" s="105"/>
+      <c r="B160" s="106"/>
       <c r="C160" s="43"/>
       <c r="D160" s="44"/>
       <c r="E160" s="43"/>
@@ -6562,8 +6570,8 @@
       <c r="Z160" s="42"/>
     </row>
     <row r="161" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A161" s="94"/>
-      <c r="B161" s="92"/>
+      <c r="A161" s="105"/>
+      <c r="B161" s="106"/>
       <c r="C161" s="43"/>
       <c r="D161" s="44"/>
       <c r="E161" s="43"/>
@@ -6593,8 +6601,8 @@
       <c r="Z161" s="42"/>
     </row>
     <row r="162" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A162" s="94"/>
-      <c r="B162" s="92"/>
+      <c r="A162" s="105"/>
+      <c r="B162" s="106"/>
       <c r="C162" s="43"/>
       <c r="D162" s="44"/>
       <c r="E162" s="43"/>
@@ -6624,8 +6632,8 @@
       <c r="Z162" s="42"/>
     </row>
     <row r="163" spans="1:26" ht="45" customHeight="1">
-      <c r="A163" s="94"/>
-      <c r="B163" s="92"/>
+      <c r="A163" s="105"/>
+      <c r="B163" s="106"/>
       <c r="C163" s="43"/>
       <c r="D163" s="44"/>
       <c r="E163" s="43"/>
@@ -6655,8 +6663,8 @@
       <c r="Z163" s="42"/>
     </row>
     <row r="164" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A164" s="94"/>
-      <c r="B164" s="92"/>
+      <c r="A164" s="105"/>
+      <c r="B164" s="106"/>
       <c r="C164" s="43"/>
       <c r="D164" s="44"/>
       <c r="E164" s="43"/>
@@ -6686,8 +6694,8 @@
       <c r="Z164" s="42"/>
     </row>
     <row r="165" spans="1:26" ht="61.5" customHeight="1">
-      <c r="A165" s="94"/>
-      <c r="B165" s="92"/>
+      <c r="A165" s="105"/>
+      <c r="B165" s="106"/>
       <c r="C165" s="43"/>
       <c r="D165" s="44"/>
       <c r="E165" s="43"/>
@@ -6717,8 +6725,8 @@
       <c r="Z165" s="42"/>
     </row>
     <row r="166" spans="1:26" ht="63" customHeight="1">
-      <c r="A166" s="94"/>
-      <c r="B166" s="92"/>
+      <c r="A166" s="105"/>
+      <c r="B166" s="106"/>
       <c r="C166" s="43"/>
       <c r="D166" s="44"/>
       <c r="E166" s="43"/>
@@ -6748,8 +6756,8 @@
       <c r="Z166" s="42"/>
     </row>
     <row r="167" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A167" s="94"/>
-      <c r="B167" s="92"/>
+      <c r="A167" s="105"/>
+      <c r="B167" s="106"/>
       <c r="C167" s="43"/>
       <c r="D167" s="44"/>
       <c r="E167" s="43"/>
@@ -6779,8 +6787,8 @@
       <c r="Z167" s="42"/>
     </row>
     <row r="168" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A168" s="94"/>
-      <c r="B168" s="92"/>
+      <c r="A168" s="105"/>
+      <c r="B168" s="106"/>
       <c r="C168" s="43"/>
       <c r="D168" s="44"/>
       <c r="E168" s="43"/>
@@ -6810,8 +6818,8 @@
       <c r="Z168" s="42"/>
     </row>
     <row r="169" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A169" s="94"/>
-      <c r="B169" s="92"/>
+      <c r="A169" s="105"/>
+      <c r="B169" s="106"/>
       <c r="C169" s="43"/>
       <c r="D169" s="44"/>
       <c r="E169" s="43"/>
@@ -6841,8 +6849,8 @@
       <c r="Z169" s="42"/>
     </row>
     <row r="170" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A170" s="94"/>
-      <c r="B170" s="92"/>
+      <c r="A170" s="105"/>
+      <c r="B170" s="106"/>
       <c r="C170" s="43"/>
       <c r="D170" s="44"/>
       <c r="E170" s="43"/>
@@ -6872,8 +6880,8 @@
       <c r="Z170" s="42"/>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A171" s="94"/>
-      <c r="B171" s="92"/>
+      <c r="A171" s="105"/>
+      <c r="B171" s="106"/>
       <c r="C171" s="20"/>
       <c r="D171" s="21"/>
       <c r="E171" s="20"/>
@@ -6885,8 +6893,8 @@
       </c>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A172" s="94"/>
-      <c r="B172" s="92"/>
+      <c r="A172" s="105"/>
+      <c r="B172" s="106"/>
       <c r="C172" s="20"/>
       <c r="D172" s="21"/>
       <c r="E172" s="20"/>
@@ -6898,8 +6906,8 @@
       </c>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A173" s="94"/>
-      <c r="B173" s="92"/>
+      <c r="A173" s="105"/>
+      <c r="B173" s="106"/>
       <c r="C173" s="20"/>
       <c r="D173" s="21"/>
       <c r="E173" s="20"/>
@@ -6911,8 +6919,8 @@
       </c>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A174" s="94"/>
-      <c r="B174" s="92"/>
+      <c r="A174" s="105"/>
+      <c r="B174" s="106"/>
       <c r="C174" s="20"/>
       <c r="D174" s="21"/>
       <c r="E174" s="20"/>
@@ -6924,8 +6932,8 @@
       </c>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A175" s="94"/>
-      <c r="B175" s="92"/>
+      <c r="A175" s="105"/>
+      <c r="B175" s="106"/>
       <c r="C175" s="20"/>
       <c r="D175" s="21"/>
       <c r="E175" s="20"/>
@@ -6937,8 +6945,8 @@
       </c>
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A176" s="94"/>
-      <c r="B176" s="92"/>
+      <c r="A176" s="105"/>
+      <c r="B176" s="106"/>
       <c r="C176" s="20"/>
       <c r="D176" s="21"/>
       <c r="E176" s="20"/>
@@ -6950,8 +6958,8 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A177" s="94"/>
-      <c r="B177" s="92"/>
+      <c r="A177" s="105"/>
+      <c r="B177" s="106"/>
       <c r="C177" s="20"/>
       <c r="D177" s="21"/>
       <c r="E177" s="20"/>
@@ -6960,8 +6968,8 @@
       <c r="H177" s="15"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A178" s="94"/>
-      <c r="B178" s="92"/>
+      <c r="A178" s="105"/>
+      <c r="B178" s="106"/>
       <c r="C178" s="20"/>
       <c r="D178" s="21"/>
       <c r="E178" s="20"/>
@@ -6970,8 +6978,8 @@
       <c r="H178" s="15"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A179" s="94"/>
-      <c r="B179" s="92"/>
+      <c r="A179" s="105"/>
+      <c r="B179" s="106"/>
       <c r="C179" s="20"/>
       <c r="D179" s="21"/>
       <c r="E179" s="20"/>
@@ -6980,8 +6988,8 @@
       <c r="H179" s="15"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A180" s="94"/>
-      <c r="B180" s="92"/>
+      <c r="A180" s="105"/>
+      <c r="B180" s="106"/>
       <c r="C180" s="20"/>
       <c r="D180" s="21"/>
       <c r="E180" s="20"/>
@@ -6990,8 +6998,8 @@
       <c r="H180" s="15"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A181" s="94"/>
-      <c r="B181" s="92"/>
+      <c r="A181" s="105"/>
+      <c r="B181" s="106"/>
       <c r="C181" s="20"/>
       <c r="D181" s="21"/>
       <c r="E181" s="20"/>
@@ -7003,8 +7011,8 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A182" s="94"/>
-      <c r="B182" s="92"/>
+      <c r="A182" s="105"/>
+      <c r="B182" s="106"/>
       <c r="C182" s="20"/>
       <c r="D182" s="21"/>
       <c r="E182" s="20"/>
@@ -7016,8 +7024,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A183" s="94"/>
-      <c r="B183" s="92"/>
+      <c r="A183" s="105"/>
+      <c r="B183" s="106"/>
       <c r="C183" s="20"/>
       <c r="D183" s="21"/>
       <c r="E183" s="20"/>
@@ -7029,8 +7037,8 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A184" s="94"/>
-      <c r="B184" s="92"/>
+      <c r="A184" s="105"/>
+      <c r="B184" s="106"/>
       <c r="C184" s="20"/>
       <c r="D184" s="21"/>
       <c r="E184" s="20"/>
@@ -7042,8 +7050,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A185" s="94"/>
-      <c r="B185" s="92"/>
+      <c r="A185" s="105"/>
+      <c r="B185" s="106"/>
       <c r="C185" s="20"/>
       <c r="D185" s="21"/>
       <c r="E185" s="20"/>
@@ -7055,8 +7063,8 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A186" s="94"/>
-      <c r="B186" s="92"/>
+      <c r="A186" s="105"/>
+      <c r="B186" s="106"/>
       <c r="C186" s="20"/>
       <c r="D186" s="21"/>
       <c r="E186" s="20"/>
@@ -7065,8 +7073,8 @@
       <c r="H186" s="15"/>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A187" s="94"/>
-      <c r="B187" s="92"/>
+      <c r="A187" s="105"/>
+      <c r="B187" s="106"/>
       <c r="C187" s="20"/>
       <c r="D187" s="21"/>
       <c r="E187" s="20"/>
@@ -7075,8 +7083,8 @@
       <c r="H187" s="15"/>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A188" s="94"/>
-      <c r="B188" s="92"/>
+      <c r="A188" s="105"/>
+      <c r="B188" s="106"/>
       <c r="C188" s="20"/>
       <c r="D188" s="21"/>
       <c r="E188" s="20"/>
@@ -7088,8 +7096,8 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A189" s="94"/>
-      <c r="B189" s="92"/>
+      <c r="A189" s="105"/>
+      <c r="B189" s="106"/>
       <c r="C189" s="20"/>
       <c r="D189" s="21"/>
       <c r="E189" s="20"/>
@@ -7101,8 +7109,8 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A190" s="94"/>
-      <c r="B190" s="92"/>
+      <c r="A190" s="105"/>
+      <c r="B190" s="106"/>
       <c r="C190" s="20"/>
       <c r="D190" s="21"/>
       <c r="E190" s="20"/>
@@ -7114,8 +7122,8 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A191" s="94"/>
-      <c r="B191" s="92"/>
+      <c r="A191" s="105"/>
+      <c r="B191" s="106"/>
       <c r="C191" s="20"/>
       <c r="D191" s="21"/>
       <c r="E191" s="20"/>
@@ -7127,8 +7135,8 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A192" s="94"/>
-      <c r="B192" s="92"/>
+      <c r="A192" s="105"/>
+      <c r="B192" s="106"/>
       <c r="C192" s="20"/>
       <c r="D192" s="21"/>
       <c r="E192" s="20"/>
@@ -7140,8 +7148,8 @@
       </c>
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A193" s="94"/>
-      <c r="B193" s="92"/>
+      <c r="A193" s="105"/>
+      <c r="B193" s="106"/>
       <c r="C193" s="20"/>
       <c r="D193" s="21"/>
       <c r="E193" s="20"/>
@@ -7153,8 +7161,8 @@
       </c>
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A194" s="94"/>
-      <c r="B194" s="92"/>
+      <c r="A194" s="105"/>
+      <c r="B194" s="106"/>
       <c r="C194" s="20"/>
       <c r="D194" s="21"/>
       <c r="E194" s="20"/>
@@ -7213,14 +7221,14 @@
       <c r="H197" s="34"/>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A198" s="95" t="s">
+      <c r="A198" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="96"/>
-      <c r="C198" s="96"/>
-      <c r="D198" s="96"/>
-      <c r="E198" s="96"/>
-      <c r="F198" s="97"/>
+      <c r="B198" s="108"/>
+      <c r="C198" s="108"/>
+      <c r="D198" s="108"/>
+      <c r="E198" s="108"/>
+      <c r="F198" s="109"/>
       <c r="G198" s="38" t="e">
         <f>G195/G196*G197</f>
         <v>#DIV/0!</v>
@@ -7240,40 +7248,40 @@
       <c r="H199" s="40"/>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A200" s="98"/>
-      <c r="B200" s="99"/>
-      <c r="C200" s="99"/>
-      <c r="D200" s="99"/>
-      <c r="E200" s="99"/>
-      <c r="F200" s="99"/>
-      <c r="G200" s="100"/>
+      <c r="A200" s="110"/>
+      <c r="B200" s="111"/>
+      <c r="C200" s="111"/>
+      <c r="D200" s="111"/>
+      <c r="E200" s="111"/>
+      <c r="F200" s="111"/>
+      <c r="G200" s="112"/>
       <c r="H200" s="34"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A201" s="101"/>
-      <c r="B201" s="99"/>
-      <c r="C201" s="99"/>
-      <c r="D201" s="99"/>
-      <c r="E201" s="99"/>
-      <c r="F201" s="99"/>
-      <c r="G201" s="100"/>
+      <c r="A201" s="113"/>
+      <c r="B201" s="111"/>
+      <c r="C201" s="111"/>
+      <c r="D201" s="111"/>
+      <c r="E201" s="111"/>
+      <c r="F201" s="111"/>
+      <c r="G201" s="112"/>
       <c r="H201" s="34"/>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A202" s="102"/>
-      <c r="B202" s="103"/>
-      <c r="C202" s="103"/>
-      <c r="D202" s="103"/>
-      <c r="E202" s="103"/>
-      <c r="F202" s="103"/>
-      <c r="G202" s="104"/>
+      <c r="A202" s="114"/>
+      <c r="B202" s="115"/>
+      <c r="C202" s="115"/>
+      <c r="D202" s="115"/>
+      <c r="E202" s="115"/>
+      <c r="F202" s="115"/>
+      <c r="G202" s="116"/>
       <c r="H202" s="34"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A203" s="91" t="s">
+      <c r="A203" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B203" s="92"/>
+      <c r="B203" s="106"/>
       <c r="C203" s="9">
         <v>0</v>
       </c>
@@ -7294,14 +7302,14 @@
       </c>
     </row>
     <row r="204" spans="1:26" ht="45" customHeight="1">
-      <c r="A204" s="109" t="s">
+      <c r="A204" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="B204" s="92"/>
+      <c r="B204" s="106"/>
       <c r="C204" s="12"/>
       <c r="D204" s="13"/>
       <c r="E204" s="14"/>
-      <c r="F204" s="113" t="s">
+      <c r="F204" s="92" t="s">
         <v>57</v>
       </c>
       <c r="G204" s="12">
@@ -7331,11 +7339,11 @@
       <c r="Z204" s="57"/>
     </row>
     <row r="205" spans="1:26" ht="60" customHeight="1">
-      <c r="A205" s="109" t="s">
+      <c r="A205" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="B205" s="92"/>
-      <c r="C205" s="113" t="s">
+      <c r="B205" s="106"/>
+      <c r="C205" s="92" t="s">
         <v>57</v>
       </c>
       <c r="D205" s="13"/>
@@ -7368,11 +7376,11 @@
       <c r="Z205" s="57"/>
     </row>
     <row r="206" spans="1:26" ht="60" customHeight="1">
-      <c r="A206" s="109" t="s">
+      <c r="A206" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B206" s="92"/>
-      <c r="C206" s="114" t="s">
+      <c r="B206" s="106"/>
+      <c r="C206" s="93" t="s">
         <v>57</v>
       </c>
       <c r="D206" s="17"/>
@@ -7405,13 +7413,13 @@
       <c r="Z206" s="57"/>
     </row>
     <row r="207" spans="1:26" ht="51.75" customHeight="1">
-      <c r="A207" s="109" t="s">
+      <c r="A207" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="B207" s="92"/>
+      <c r="B207" s="106"/>
       <c r="C207" s="16"/>
       <c r="D207" s="17"/>
-      <c r="E207" s="115" t="s">
+      <c r="E207" s="94" t="s">
         <v>57</v>
       </c>
       <c r="F207" s="16"/>
@@ -7442,12 +7450,12 @@
       <c r="Z207" s="57"/>
     </row>
     <row r="208" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A208" s="109" t="s">
+      <c r="A208" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="92"/>
-      <c r="C208" s="114"/>
-      <c r="D208" s="119" t="s">
+      <c r="B208" s="106"/>
+      <c r="C208" s="93"/>
+      <c r="D208" s="98" t="s">
         <v>57</v>
       </c>
       <c r="E208" s="18"/>
@@ -7479,8 +7487,8 @@
       <c r="Z208" s="57"/>
     </row>
     <row r="209" spans="1:26" ht="61.5" customHeight="1">
-      <c r="A209" s="94"/>
-      <c r="B209" s="92"/>
+      <c r="A209" s="105"/>
+      <c r="B209" s="106"/>
       <c r="C209" s="43"/>
       <c r="D209" s="44"/>
       <c r="E209" s="43"/>
@@ -7510,8 +7518,8 @@
       <c r="Z209" s="57"/>
     </row>
     <row r="210" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A210" s="94"/>
-      <c r="B210" s="92"/>
+      <c r="A210" s="105"/>
+      <c r="B210" s="106"/>
       <c r="C210" s="43"/>
       <c r="D210" s="44"/>
       <c r="E210" s="43"/>
@@ -7541,8 +7549,8 @@
       <c r="Z210" s="57"/>
     </row>
     <row r="211" spans="1:26" ht="60.75" customHeight="1">
-      <c r="A211" s="94"/>
-      <c r="B211" s="92"/>
+      <c r="A211" s="105"/>
+      <c r="B211" s="106"/>
       <c r="C211" s="43"/>
       <c r="D211" s="44"/>
       <c r="E211" s="43"/>
@@ -7572,8 +7580,8 @@
       <c r="Z211" s="57"/>
     </row>
     <row r="212" spans="1:26" ht="91.5" customHeight="1">
-      <c r="A212" s="94"/>
-      <c r="B212" s="92"/>
+      <c r="A212" s="105"/>
+      <c r="B212" s="106"/>
       <c r="C212" s="43"/>
       <c r="D212" s="44"/>
       <c r="E212" s="43"/>
@@ -7603,8 +7611,8 @@
       <c r="Z212" s="57"/>
     </row>
     <row r="213" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A213" s="94"/>
-      <c r="B213" s="92"/>
+      <c r="A213" s="105"/>
+      <c r="B213" s="106"/>
       <c r="C213" s="43"/>
       <c r="D213" s="44"/>
       <c r="E213" s="43"/>
@@ -7634,8 +7642,8 @@
       <c r="Z213" s="57"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A214" s="94"/>
-      <c r="B214" s="92"/>
+      <c r="A214" s="105"/>
+      <c r="B214" s="106"/>
       <c r="C214" s="43"/>
       <c r="D214" s="44"/>
       <c r="E214" s="43"/>
@@ -7665,8 +7673,8 @@
       <c r="Z214" s="57"/>
     </row>
     <row r="215" spans="1:26" ht="66.75" customHeight="1">
-      <c r="A215" s="94"/>
-      <c r="B215" s="92"/>
+      <c r="A215" s="105"/>
+      <c r="B215" s="106"/>
       <c r="C215" s="43"/>
       <c r="D215" s="44"/>
       <c r="E215" s="43"/>
@@ -7696,8 +7704,8 @@
       <c r="Z215" s="57"/>
     </row>
     <row r="216" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A216" s="94"/>
-      <c r="B216" s="92"/>
+      <c r="A216" s="105"/>
+      <c r="B216" s="106"/>
       <c r="C216" s="43"/>
       <c r="D216" s="44"/>
       <c r="E216" s="43"/>
@@ -7727,8 +7735,8 @@
       <c r="Z216" s="57"/>
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A217" s="94"/>
-      <c r="B217" s="92"/>
+      <c r="A217" s="105"/>
+      <c r="B217" s="106"/>
       <c r="C217" s="43"/>
       <c r="D217" s="44"/>
       <c r="E217" s="43"/>
@@ -7758,8 +7766,8 @@
       <c r="Z217" s="57"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A218" s="94"/>
-      <c r="B218" s="92"/>
+      <c r="A218" s="105"/>
+      <c r="B218" s="106"/>
       <c r="C218" s="20"/>
       <c r="D218" s="21"/>
       <c r="E218" s="20"/>
@@ -7771,8 +7779,8 @@
       </c>
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A219" s="94"/>
-      <c r="B219" s="92"/>
+      <c r="A219" s="105"/>
+      <c r="B219" s="106"/>
       <c r="C219" s="20"/>
       <c r="D219" s="21"/>
       <c r="E219" s="20"/>
@@ -7784,8 +7792,8 @@
       </c>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A220" s="94"/>
-      <c r="B220" s="92"/>
+      <c r="A220" s="105"/>
+      <c r="B220" s="106"/>
       <c r="C220" s="20"/>
       <c r="D220" s="21"/>
       <c r="E220" s="20"/>
@@ -7797,8 +7805,8 @@
       </c>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="94"/>
-      <c r="B221" s="92"/>
+      <c r="A221" s="105"/>
+      <c r="B221" s="106"/>
       <c r="C221" s="20"/>
       <c r="D221" s="21"/>
       <c r="E221" s="20"/>
@@ -7810,8 +7818,8 @@
       </c>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A222" s="94"/>
-      <c r="B222" s="92"/>
+      <c r="A222" s="105"/>
+      <c r="B222" s="106"/>
       <c r="C222" s="20"/>
       <c r="D222" s="21"/>
       <c r="E222" s="20"/>
@@ -7823,8 +7831,8 @@
       </c>
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A223" s="94"/>
-      <c r="B223" s="92"/>
+      <c r="A223" s="105"/>
+      <c r="B223" s="106"/>
       <c r="C223" s="20"/>
       <c r="D223" s="21"/>
       <c r="E223" s="20"/>
@@ -7836,8 +7844,8 @@
       </c>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="94"/>
-      <c r="B224" s="92"/>
+      <c r="A224" s="105"/>
+      <c r="B224" s="106"/>
       <c r="C224" s="20"/>
       <c r="D224" s="21"/>
       <c r="E224" s="20"/>
@@ -7849,8 +7857,8 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A225" s="94"/>
-      <c r="B225" s="92"/>
+      <c r="A225" s="105"/>
+      <c r="B225" s="106"/>
       <c r="C225" s="20"/>
       <c r="D225" s="21"/>
       <c r="E225" s="20"/>
@@ -7862,8 +7870,8 @@
       </c>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A226" s="94"/>
-      <c r="B226" s="92"/>
+      <c r="A226" s="105"/>
+      <c r="B226" s="106"/>
       <c r="C226" s="20"/>
       <c r="D226" s="21"/>
       <c r="E226" s="20"/>
@@ -7875,8 +7883,8 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A227" s="94"/>
-      <c r="B227" s="92"/>
+      <c r="A227" s="105"/>
+      <c r="B227" s="106"/>
       <c r="C227" s="20"/>
       <c r="D227" s="21"/>
       <c r="E227" s="20"/>
@@ -7888,8 +7896,8 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A228" s="94"/>
-      <c r="B228" s="92"/>
+      <c r="A228" s="105"/>
+      <c r="B228" s="106"/>
       <c r="C228" s="20"/>
       <c r="D228" s="21"/>
       <c r="E228" s="20"/>
@@ -7901,8 +7909,8 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A229" s="94"/>
-      <c r="B229" s="92"/>
+      <c r="A229" s="105"/>
+      <c r="B229" s="106"/>
       <c r="C229" s="20"/>
       <c r="D229" s="21"/>
       <c r="E229" s="20"/>
@@ -7914,8 +7922,8 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A230" s="94"/>
-      <c r="B230" s="92"/>
+      <c r="A230" s="105"/>
+      <c r="B230" s="106"/>
       <c r="C230" s="20"/>
       <c r="D230" s="21"/>
       <c r="E230" s="20"/>
@@ -7924,8 +7932,8 @@
       <c r="H230" s="15"/>
     </row>
     <row r="231" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A231" s="94"/>
-      <c r="B231" s="92"/>
+      <c r="A231" s="105"/>
+      <c r="B231" s="106"/>
       <c r="C231" s="20"/>
       <c r="D231" s="21"/>
       <c r="E231" s="20"/>
@@ -7934,8 +7942,8 @@
       <c r="H231" s="15"/>
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A232" s="94"/>
-      <c r="B232" s="92"/>
+      <c r="A232" s="105"/>
+      <c r="B232" s="106"/>
       <c r="C232" s="20"/>
       <c r="D232" s="21"/>
       <c r="E232" s="20"/>
@@ -7944,8 +7952,8 @@
       <c r="H232" s="15"/>
     </row>
     <row r="233" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A233" s="94"/>
-      <c r="B233" s="92"/>
+      <c r="A233" s="105"/>
+      <c r="B233" s="106"/>
       <c r="C233" s="20"/>
       <c r="D233" s="21"/>
       <c r="E233" s="20"/>
@@ -7954,8 +7962,8 @@
       <c r="H233" s="15"/>
     </row>
     <row r="234" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A234" s="94"/>
-      <c r="B234" s="92"/>
+      <c r="A234" s="105"/>
+      <c r="B234" s="106"/>
       <c r="C234" s="20"/>
       <c r="D234" s="21"/>
       <c r="E234" s="20"/>
@@ -7964,8 +7972,8 @@
       <c r="H234" s="15"/>
     </row>
     <row r="235" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A235" s="94"/>
-      <c r="B235" s="92"/>
+      <c r="A235" s="105"/>
+      <c r="B235" s="106"/>
       <c r="C235" s="20"/>
       <c r="D235" s="21"/>
       <c r="E235" s="20"/>
@@ -7974,8 +7982,8 @@
       <c r="H235" s="15"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A236" s="94"/>
-      <c r="B236" s="92"/>
+      <c r="A236" s="105"/>
+      <c r="B236" s="106"/>
       <c r="C236" s="20"/>
       <c r="D236" s="21"/>
       <c r="E236" s="20"/>
@@ -7984,8 +7992,8 @@
       <c r="H236" s="15"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A237" s="94"/>
-      <c r="B237" s="92"/>
+      <c r="A237" s="105"/>
+      <c r="B237" s="106"/>
       <c r="C237" s="20"/>
       <c r="D237" s="21"/>
       <c r="E237" s="20"/>
@@ -7994,8 +8002,8 @@
       <c r="H237" s="15"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A238" s="94"/>
-      <c r="B238" s="92"/>
+      <c r="A238" s="105"/>
+      <c r="B238" s="106"/>
       <c r="C238" s="20"/>
       <c r="D238" s="21"/>
       <c r="E238" s="20"/>
@@ -8004,8 +8012,8 @@
       <c r="H238" s="15"/>
     </row>
     <row r="239" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A239" s="94"/>
-      <c r="B239" s="92"/>
+      <c r="A239" s="105"/>
+      <c r="B239" s="106"/>
       <c r="C239" s="20"/>
       <c r="D239" s="21"/>
       <c r="E239" s="20"/>
@@ -8014,8 +8022,8 @@
       <c r="H239" s="15"/>
     </row>
     <row r="240" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A240" s="94"/>
-      <c r="B240" s="92"/>
+      <c r="A240" s="105"/>
+      <c r="B240" s="106"/>
       <c r="C240" s="20"/>
       <c r="D240" s="21"/>
       <c r="E240" s="20"/>
@@ -8027,8 +8035,8 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A241" s="94"/>
-      <c r="B241" s="92"/>
+      <c r="A241" s="105"/>
+      <c r="B241" s="106"/>
       <c r="C241" s="20"/>
       <c r="D241" s="21"/>
       <c r="E241" s="20"/>
@@ -8040,8 +8048,8 @@
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A242" s="94"/>
-      <c r="B242" s="92"/>
+      <c r="A242" s="105"/>
+      <c r="B242" s="106"/>
       <c r="C242" s="20"/>
       <c r="D242" s="21"/>
       <c r="E242" s="20"/>
@@ -8050,8 +8058,8 @@
       <c r="H242" s="15"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A243" s="94"/>
-      <c r="B243" s="92"/>
+      <c r="A243" s="105"/>
+      <c r="B243" s="106"/>
       <c r="C243" s="20"/>
       <c r="D243" s="21"/>
       <c r="E243" s="20"/>
@@ -8060,8 +8068,8 @@
       <c r="H243" s="15"/>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A244" s="94"/>
-      <c r="B244" s="92"/>
+      <c r="A244" s="105"/>
+      <c r="B244" s="106"/>
       <c r="C244" s="20"/>
       <c r="D244" s="21"/>
       <c r="E244" s="20"/>
@@ -8070,8 +8078,8 @@
       <c r="H244" s="15"/>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A245" s="94"/>
-      <c r="B245" s="92"/>
+      <c r="A245" s="105"/>
+      <c r="B245" s="106"/>
       <c r="C245" s="20"/>
       <c r="D245" s="21"/>
       <c r="E245" s="20"/>
@@ -8080,8 +8088,8 @@
       <c r="H245" s="15"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A246" s="94"/>
-      <c r="B246" s="92"/>
+      <c r="A246" s="105"/>
+      <c r="B246" s="106"/>
       <c r="C246" s="20"/>
       <c r="D246" s="21"/>
       <c r="E246" s="20"/>
@@ -8093,8 +8101,8 @@
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A247" s="94"/>
-      <c r="B247" s="92"/>
+      <c r="A247" s="105"/>
+      <c r="B247" s="106"/>
       <c r="C247" s="20"/>
       <c r="D247" s="21"/>
       <c r="E247" s="20"/>
@@ -8106,8 +8114,8 @@
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A248" s="94"/>
-      <c r="B248" s="92"/>
+      <c r="A248" s="105"/>
+      <c r="B248" s="106"/>
       <c r="C248" s="20"/>
       <c r="D248" s="21"/>
       <c r="E248" s="20"/>
@@ -8119,8 +8127,8 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A249" s="94"/>
-      <c r="B249" s="92"/>
+      <c r="A249" s="105"/>
+      <c r="B249" s="106"/>
       <c r="C249" s="20"/>
       <c r="D249" s="21"/>
       <c r="E249" s="20"/>
@@ -8132,8 +8140,8 @@
       </c>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A250" s="94"/>
-      <c r="B250" s="92"/>
+      <c r="A250" s="105"/>
+      <c r="B250" s="106"/>
       <c r="C250" s="20"/>
       <c r="D250" s="21"/>
       <c r="E250" s="20"/>
@@ -8145,8 +8153,8 @@
       </c>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A251" s="94"/>
-      <c r="B251" s="92"/>
+      <c r="A251" s="105"/>
+      <c r="B251" s="106"/>
       <c r="C251" s="20"/>
       <c r="D251" s="21"/>
       <c r="E251" s="20"/>
@@ -8158,8 +8166,8 @@
       </c>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A252" s="94"/>
-      <c r="B252" s="92"/>
+      <c r="A252" s="105"/>
+      <c r="B252" s="106"/>
       <c r="C252" s="20"/>
       <c r="D252" s="21"/>
       <c r="E252" s="20"/>
@@ -8171,8 +8179,8 @@
       </c>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A253" s="94"/>
-      <c r="B253" s="92"/>
+      <c r="A253" s="105"/>
+      <c r="B253" s="106"/>
       <c r="C253" s="20"/>
       <c r="D253" s="21"/>
       <c r="E253" s="20"/>
@@ -8184,8 +8192,8 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A254" s="94"/>
-      <c r="B254" s="92"/>
+      <c r="A254" s="105"/>
+      <c r="B254" s="106"/>
       <c r="C254" s="20"/>
       <c r="D254" s="21"/>
       <c r="E254" s="20"/>
@@ -8197,8 +8205,8 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A255" s="94"/>
-      <c r="B255" s="92"/>
+      <c r="A255" s="105"/>
+      <c r="B255" s="106"/>
       <c r="C255" s="20"/>
       <c r="D255" s="21"/>
       <c r="E255" s="20"/>
@@ -8210,8 +8218,8 @@
       </c>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A256" s="94"/>
-      <c r="B256" s="92"/>
+      <c r="A256" s="105"/>
+      <c r="B256" s="106"/>
       <c r="C256" s="20"/>
       <c r="D256" s="21"/>
       <c r="E256" s="20"/>
@@ -8270,14 +8278,14 @@
       <c r="H259" s="34"/>
     </row>
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A260" s="95" t="s">
+      <c r="A260" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B260" s="96"/>
-      <c r="C260" s="96"/>
-      <c r="D260" s="96"/>
-      <c r="E260" s="96"/>
-      <c r="F260" s="97"/>
+      <c r="B260" s="108"/>
+      <c r="C260" s="108"/>
+      <c r="D260" s="108"/>
+      <c r="E260" s="108"/>
+      <c r="F260" s="109"/>
       <c r="G260" s="38">
         <f>G257/G258*G259</f>
         <v>2</v>
@@ -8297,40 +8305,40 @@
       <c r="H261" s="40"/>
     </row>
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A262" s="98"/>
-      <c r="B262" s="99"/>
-      <c r="C262" s="99"/>
-      <c r="D262" s="99"/>
-      <c r="E262" s="99"/>
-      <c r="F262" s="99"/>
-      <c r="G262" s="100"/>
+      <c r="A262" s="110"/>
+      <c r="B262" s="111"/>
+      <c r="C262" s="111"/>
+      <c r="D262" s="111"/>
+      <c r="E262" s="111"/>
+      <c r="F262" s="111"/>
+      <c r="G262" s="112"/>
       <c r="H262" s="34"/>
     </row>
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A263" s="101"/>
-      <c r="B263" s="99"/>
-      <c r="C263" s="99"/>
-      <c r="D263" s="99"/>
-      <c r="E263" s="99"/>
-      <c r="F263" s="99"/>
-      <c r="G263" s="100"/>
+      <c r="A263" s="113"/>
+      <c r="B263" s="111"/>
+      <c r="C263" s="111"/>
+      <c r="D263" s="111"/>
+      <c r="E263" s="111"/>
+      <c r="F263" s="111"/>
+      <c r="G263" s="112"/>
       <c r="H263" s="34"/>
     </row>
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A264" s="102"/>
-      <c r="B264" s="103"/>
-      <c r="C264" s="103"/>
-      <c r="D264" s="103"/>
-      <c r="E264" s="103"/>
-      <c r="F264" s="103"/>
-      <c r="G264" s="104"/>
+      <c r="A264" s="114"/>
+      <c r="B264" s="115"/>
+      <c r="C264" s="115"/>
+      <c r="D264" s="115"/>
+      <c r="E264" s="115"/>
+      <c r="F264" s="115"/>
+      <c r="G264" s="116"/>
       <c r="H264" s="34"/>
     </row>
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A265" s="91" t="s">
+      <c r="A265" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B265" s="92"/>
+      <c r="B265" s="106"/>
       <c r="C265" s="9">
         <v>0</v>
       </c>
@@ -8351,13 +8359,13 @@
       </c>
     </row>
     <row r="266" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A266" s="108" t="s">
+      <c r="A266" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="B266" s="92"/>
+      <c r="B266" s="106"/>
       <c r="C266" s="22"/>
       <c r="D266" s="49"/>
-      <c r="E266" s="120" t="s">
+      <c r="E266" s="99" t="s">
         <v>57</v>
       </c>
       <c r="F266" s="22"/>
@@ -8388,14 +8396,14 @@
       <c r="Z266" s="57"/>
     </row>
     <row r="267" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A267" s="108" t="s">
+      <c r="A267" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B267" s="92"/>
+      <c r="B267" s="106"/>
       <c r="C267" s="46"/>
       <c r="D267" s="47"/>
       <c r="E267" s="48"/>
-      <c r="F267" s="121" t="s">
+      <c r="F267" s="100" t="s">
         <v>57</v>
       </c>
       <c r="G267" s="46">
@@ -8425,14 +8433,14 @@
       <c r="Z267" s="57"/>
     </row>
     <row r="268" spans="1:26" ht="30" customHeight="1">
-      <c r="A268" s="108" t="s">
+      <c r="A268" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B268" s="92"/>
+      <c r="B268" s="106"/>
       <c r="C268" s="46"/>
       <c r="D268" s="47"/>
       <c r="E268" s="48"/>
-      <c r="F268" s="121" t="s">
+      <c r="F268" s="100" t="s">
         <v>57</v>
       </c>
       <c r="G268" s="46">
@@ -8462,8 +8470,8 @@
       <c r="Z268" s="57"/>
     </row>
     <row r="269" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A269" s="94"/>
-      <c r="B269" s="92"/>
+      <c r="A269" s="105"/>
+      <c r="B269" s="106"/>
       <c r="C269" s="46"/>
       <c r="D269" s="47"/>
       <c r="E269" s="48"/>
@@ -8493,8 +8501,8 @@
       <c r="Z269" s="57"/>
     </row>
     <row r="270" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A270" s="94"/>
-      <c r="B270" s="92"/>
+      <c r="A270" s="105"/>
+      <c r="B270" s="106"/>
       <c r="C270" s="46"/>
       <c r="D270" s="47"/>
       <c r="E270" s="48"/>
@@ -8524,8 +8532,8 @@
       <c r="Z270" s="57"/>
     </row>
     <row r="271" spans="1:26" ht="45" customHeight="1">
-      <c r="A271" s="94"/>
-      <c r="B271" s="92"/>
+      <c r="A271" s="105"/>
+      <c r="B271" s="106"/>
       <c r="C271" s="43"/>
       <c r="D271" s="44"/>
       <c r="E271" s="43"/>
@@ -8555,8 +8563,8 @@
       <c r="Z271" s="57"/>
     </row>
     <row r="272" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A272" s="94"/>
-      <c r="B272" s="92"/>
+      <c r="A272" s="105"/>
+      <c r="B272" s="106"/>
       <c r="C272" s="43"/>
       <c r="D272" s="44"/>
       <c r="E272" s="43"/>
@@ -8586,8 +8594,8 @@
       <c r="Z272" s="57"/>
     </row>
     <row r="273" spans="1:26" ht="30" customHeight="1">
-      <c r="A273" s="94"/>
-      <c r="B273" s="92"/>
+      <c r="A273" s="105"/>
+      <c r="B273" s="106"/>
       <c r="C273" s="43"/>
       <c r="D273" s="44"/>
       <c r="E273" s="43"/>
@@ -8617,8 +8625,8 @@
       <c r="Z273" s="57"/>
     </row>
     <row r="274" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A274" s="94"/>
-      <c r="B274" s="92"/>
+      <c r="A274" s="105"/>
+      <c r="B274" s="106"/>
       <c r="C274" s="43"/>
       <c r="D274" s="44"/>
       <c r="E274" s="43"/>
@@ -8648,8 +8656,8 @@
       <c r="Z274" s="57"/>
     </row>
     <row r="275" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A275" s="94"/>
-      <c r="B275" s="92"/>
+      <c r="A275" s="105"/>
+      <c r="B275" s="106"/>
       <c r="C275" s="20"/>
       <c r="D275" s="21"/>
       <c r="E275" s="20"/>
@@ -8661,8 +8669,8 @@
       </c>
     </row>
     <row r="276" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A276" s="94"/>
-      <c r="B276" s="92"/>
+      <c r="A276" s="105"/>
+      <c r="B276" s="106"/>
       <c r="C276" s="20"/>
       <c r="D276" s="21"/>
       <c r="E276" s="20"/>
@@ -8674,8 +8682,8 @@
       </c>
     </row>
     <row r="277" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A277" s="94"/>
-      <c r="B277" s="92"/>
+      <c r="A277" s="105"/>
+      <c r="B277" s="106"/>
       <c r="C277" s="20"/>
       <c r="D277" s="21"/>
       <c r="E277" s="20"/>
@@ -8687,8 +8695,8 @@
       </c>
     </row>
     <row r="278" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A278" s="94"/>
-      <c r="B278" s="92"/>
+      <c r="A278" s="105"/>
+      <c r="B278" s="106"/>
       <c r="C278" s="20"/>
       <c r="D278" s="21"/>
       <c r="E278" s="20"/>
@@ -8700,8 +8708,8 @@
       </c>
     </row>
     <row r="279" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A279" s="94"/>
-      <c r="B279" s="92"/>
+      <c r="A279" s="105"/>
+      <c r="B279" s="106"/>
       <c r="C279" s="20"/>
       <c r="D279" s="21"/>
       <c r="E279" s="20"/>
@@ -8713,8 +8721,8 @@
       </c>
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A280" s="94"/>
-      <c r="B280" s="92"/>
+      <c r="A280" s="105"/>
+      <c r="B280" s="106"/>
       <c r="C280" s="20"/>
       <c r="D280" s="21"/>
       <c r="E280" s="20"/>
@@ -8726,8 +8734,8 @@
       </c>
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A281" s="94"/>
-      <c r="B281" s="92"/>
+      <c r="A281" s="105"/>
+      <c r="B281" s="106"/>
       <c r="C281" s="20"/>
       <c r="D281" s="21"/>
       <c r="E281" s="20"/>
@@ -8739,8 +8747,8 @@
       </c>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A282" s="94"/>
-      <c r="B282" s="92"/>
+      <c r="A282" s="105"/>
+      <c r="B282" s="106"/>
       <c r="C282" s="20"/>
       <c r="D282" s="21"/>
       <c r="E282" s="20"/>
@@ -8752,8 +8760,8 @@
       </c>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A283" s="94"/>
-      <c r="B283" s="92"/>
+      <c r="A283" s="105"/>
+      <c r="B283" s="106"/>
       <c r="C283" s="20"/>
       <c r="D283" s="21"/>
       <c r="E283" s="20"/>
@@ -8765,8 +8773,8 @@
       </c>
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A284" s="94"/>
-      <c r="B284" s="92"/>
+      <c r="A284" s="105"/>
+      <c r="B284" s="106"/>
       <c r="C284" s="20"/>
       <c r="D284" s="21"/>
       <c r="E284" s="20"/>
@@ -8778,8 +8786,8 @@
       </c>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A285" s="94"/>
-      <c r="B285" s="92"/>
+      <c r="A285" s="105"/>
+      <c r="B285" s="106"/>
       <c r="C285" s="20"/>
       <c r="D285" s="21"/>
       <c r="E285" s="20"/>
@@ -8791,8 +8799,8 @@
       </c>
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A286" s="94"/>
-      <c r="B286" s="92"/>
+      <c r="A286" s="105"/>
+      <c r="B286" s="106"/>
       <c r="C286" s="20"/>
       <c r="D286" s="21"/>
       <c r="E286" s="20"/>
@@ -8804,8 +8812,8 @@
       </c>
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A287" s="94"/>
-      <c r="B287" s="92"/>
+      <c r="A287" s="105"/>
+      <c r="B287" s="106"/>
       <c r="C287" s="20"/>
       <c r="D287" s="21"/>
       <c r="E287" s="20"/>
@@ -8817,8 +8825,8 @@
       </c>
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A288" s="94"/>
-      <c r="B288" s="92"/>
+      <c r="A288" s="105"/>
+      <c r="B288" s="106"/>
       <c r="C288" s="20"/>
       <c r="D288" s="21"/>
       <c r="E288" s="20"/>
@@ -8830,8 +8838,8 @@
       </c>
     </row>
     <row r="289" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A289" s="94"/>
-      <c r="B289" s="92"/>
+      <c r="A289" s="105"/>
+      <c r="B289" s="106"/>
       <c r="C289" s="20"/>
       <c r="D289" s="21"/>
       <c r="E289" s="20"/>
@@ -8843,8 +8851,8 @@
       </c>
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A290" s="94"/>
-      <c r="B290" s="92"/>
+      <c r="A290" s="105"/>
+      <c r="B290" s="106"/>
       <c r="C290" s="20"/>
       <c r="D290" s="21"/>
       <c r="E290" s="20"/>
@@ -8856,8 +8864,8 @@
       </c>
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A291" s="94"/>
-      <c r="B291" s="92"/>
+      <c r="A291" s="105"/>
+      <c r="B291" s="106"/>
       <c r="C291" s="20"/>
       <c r="D291" s="21"/>
       <c r="E291" s="20"/>
@@ -8916,14 +8924,14 @@
       <c r="H294" s="34"/>
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A295" s="95" t="s">
+      <c r="A295" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B295" s="96"/>
-      <c r="C295" s="96"/>
-      <c r="D295" s="96"/>
-      <c r="E295" s="96"/>
-      <c r="F295" s="97"/>
+      <c r="B295" s="108"/>
+      <c r="C295" s="108"/>
+      <c r="D295" s="108"/>
+      <c r="E295" s="108"/>
+      <c r="F295" s="109"/>
       <c r="G295" s="38">
         <f>G292/G293*G294</f>
         <v>3.5555555555555554</v>
@@ -8943,40 +8951,40 @@
       <c r="H296" s="40"/>
     </row>
     <row r="297" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A297" s="98"/>
-      <c r="B297" s="99"/>
-      <c r="C297" s="99"/>
-      <c r="D297" s="99"/>
-      <c r="E297" s="99"/>
-      <c r="F297" s="99"/>
-      <c r="G297" s="100"/>
+      <c r="A297" s="110"/>
+      <c r="B297" s="111"/>
+      <c r="C297" s="111"/>
+      <c r="D297" s="111"/>
+      <c r="E297" s="111"/>
+      <c r="F297" s="111"/>
+      <c r="G297" s="112"/>
       <c r="H297" s="34"/>
     </row>
     <row r="298" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A298" s="101"/>
-      <c r="B298" s="99"/>
-      <c r="C298" s="99"/>
-      <c r="D298" s="99"/>
-      <c r="E298" s="99"/>
-      <c r="F298" s="99"/>
-      <c r="G298" s="100"/>
+      <c r="A298" s="113"/>
+      <c r="B298" s="111"/>
+      <c r="C298" s="111"/>
+      <c r="D298" s="111"/>
+      <c r="E298" s="111"/>
+      <c r="F298" s="111"/>
+      <c r="G298" s="112"/>
       <c r="H298" s="34"/>
     </row>
     <row r="299" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A299" s="102"/>
-      <c r="B299" s="103"/>
-      <c r="C299" s="103"/>
-      <c r="D299" s="103"/>
-      <c r="E299" s="103"/>
-      <c r="F299" s="103"/>
-      <c r="G299" s="104"/>
+      <c r="A299" s="114"/>
+      <c r="B299" s="115"/>
+      <c r="C299" s="115"/>
+      <c r="D299" s="115"/>
+      <c r="E299" s="115"/>
+      <c r="F299" s="115"/>
+      <c r="G299" s="116"/>
       <c r="H299" s="34"/>
     </row>
     <row r="300" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A300" s="91" t="s">
+      <c r="A300" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B300" s="92"/>
+      <c r="B300" s="106"/>
       <c r="C300" s="9">
         <v>0</v>
       </c>
@@ -8997,8 +9005,8 @@
       </c>
     </row>
     <row r="301" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A301" s="93"/>
-      <c r="B301" s="92"/>
+      <c r="A301" s="119"/>
+      <c r="B301" s="106"/>
       <c r="C301" s="12"/>
       <c r="D301" s="13"/>
       <c r="E301" s="14"/>
@@ -9059,8 +9067,8 @@
       <c r="Z302" s="57"/>
     </row>
     <row r="303" spans="1:26" ht="30" customHeight="1">
-      <c r="A303" s="93"/>
-      <c r="B303" s="92"/>
+      <c r="A303" s="119"/>
+      <c r="B303" s="106"/>
       <c r="C303" s="16"/>
       <c r="D303" s="17"/>
       <c r="E303" s="18"/>
@@ -9090,8 +9098,8 @@
       <c r="Z303" s="57"/>
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A304" s="93"/>
-      <c r="B304" s="92"/>
+      <c r="A304" s="119"/>
+      <c r="B304" s="106"/>
       <c r="C304" s="16"/>
       <c r="D304" s="17"/>
       <c r="E304" s="18"/>
@@ -9121,8 +9129,8 @@
       <c r="Z304" s="57"/>
     </row>
     <row r="305" spans="1:26" ht="30" customHeight="1">
-      <c r="A305" s="93"/>
-      <c r="B305" s="92"/>
+      <c r="A305" s="119"/>
+      <c r="B305" s="106"/>
       <c r="C305" s="16"/>
       <c r="D305" s="17"/>
       <c r="E305" s="18"/>
@@ -9152,8 +9160,8 @@
       <c r="Z305" s="57"/>
     </row>
     <row r="306" spans="1:26" ht="30" customHeight="1">
-      <c r="A306" s="94"/>
-      <c r="B306" s="92"/>
+      <c r="A306" s="105"/>
+      <c r="B306" s="106"/>
       <c r="C306" s="43"/>
       <c r="D306" s="44"/>
       <c r="E306" s="43"/>
@@ -9183,8 +9191,8 @@
       <c r="Z306" s="57"/>
     </row>
     <row r="307" spans="1:26" ht="30" customHeight="1">
-      <c r="A307" s="94"/>
-      <c r="B307" s="92"/>
+      <c r="A307" s="105"/>
+      <c r="B307" s="106"/>
       <c r="C307" s="43"/>
       <c r="D307" s="44"/>
       <c r="E307" s="43"/>
@@ -9214,8 +9222,8 @@
       <c r="Z307" s="57"/>
     </row>
     <row r="308" spans="1:26" ht="30" customHeight="1">
-      <c r="A308" s="94"/>
-      <c r="B308" s="92"/>
+      <c r="A308" s="105"/>
+      <c r="B308" s="106"/>
       <c r="C308" s="43"/>
       <c r="D308" s="44"/>
       <c r="E308" s="43"/>
@@ -9245,8 +9253,8 @@
       <c r="Z308" s="57"/>
     </row>
     <row r="309" spans="1:26" ht="59.25" customHeight="1">
-      <c r="A309" s="94"/>
-      <c r="B309" s="92"/>
+      <c r="A309" s="105"/>
+      <c r="B309" s="106"/>
       <c r="C309" s="43"/>
       <c r="D309" s="44"/>
       <c r="E309" s="43"/>
@@ -9276,8 +9284,8 @@
       <c r="Z309" s="57"/>
     </row>
     <row r="310" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A310" s="94"/>
-      <c r="B310" s="92"/>
+      <c r="A310" s="105"/>
+      <c r="B310" s="106"/>
       <c r="C310" s="43"/>
       <c r="D310" s="44"/>
       <c r="E310" s="43"/>
@@ -9307,8 +9315,8 @@
       <c r="Z310" s="57"/>
     </row>
     <row r="311" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A311" s="94"/>
-      <c r="B311" s="92"/>
+      <c r="A311" s="105"/>
+      <c r="B311" s="106"/>
       <c r="C311" s="43"/>
       <c r="D311" s="44"/>
       <c r="E311" s="43"/>
@@ -9338,8 +9346,8 @@
       <c r="Z311" s="57"/>
     </row>
     <row r="312" spans="1:26" ht="30" customHeight="1">
-      <c r="A312" s="94"/>
-      <c r="B312" s="92"/>
+      <c r="A312" s="105"/>
+      <c r="B312" s="106"/>
       <c r="C312" s="43"/>
       <c r="D312" s="44"/>
       <c r="E312" s="43"/>
@@ -9369,8 +9377,8 @@
       <c r="Z312" s="57"/>
     </row>
     <row r="313" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A313" s="94"/>
-      <c r="B313" s="92"/>
+      <c r="A313" s="105"/>
+      <c r="B313" s="106"/>
       <c r="C313" s="43"/>
       <c r="D313" s="44"/>
       <c r="E313" s="43"/>
@@ -9400,8 +9408,8 @@
       <c r="Z313" s="57"/>
     </row>
     <row r="314" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A314" s="94"/>
-      <c r="B314" s="92"/>
+      <c r="A314" s="105"/>
+      <c r="B314" s="106"/>
       <c r="C314" s="43"/>
       <c r="D314" s="44"/>
       <c r="E314" s="43"/>
@@ -9431,8 +9439,8 @@
       <c r="Z314" s="57"/>
     </row>
     <row r="315" spans="1:26" ht="48" customHeight="1">
-      <c r="A315" s="94"/>
-      <c r="B315" s="92"/>
+      <c r="A315" s="105"/>
+      <c r="B315" s="106"/>
       <c r="C315" s="43"/>
       <c r="D315" s="44"/>
       <c r="E315" s="43"/>
@@ -9462,8 +9470,8 @@
       <c r="Z315" s="57"/>
     </row>
     <row r="316" spans="1:26" ht="47.25" customHeight="1">
-      <c r="A316" s="94"/>
-      <c r="B316" s="92"/>
+      <c r="A316" s="105"/>
+      <c r="B316" s="106"/>
       <c r="C316" s="43"/>
       <c r="D316" s="44"/>
       <c r="E316" s="43"/>
@@ -9493,8 +9501,8 @@
       <c r="Z316" s="57"/>
     </row>
     <row r="317" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A317" s="94"/>
-      <c r="B317" s="92"/>
+      <c r="A317" s="105"/>
+      <c r="B317" s="106"/>
       <c r="C317" s="43"/>
       <c r="D317" s="44"/>
       <c r="E317" s="43"/>
@@ -9524,8 +9532,8 @@
       <c r="Z317" s="57"/>
     </row>
     <row r="318" spans="1:26" ht="59.25" customHeight="1">
-      <c r="A318" s="94"/>
-      <c r="B318" s="92"/>
+      <c r="A318" s="105"/>
+      <c r="B318" s="106"/>
       <c r="C318" s="43"/>
       <c r="D318" s="44"/>
       <c r="E318" s="43"/>
@@ -9555,8 +9563,8 @@
       <c r="Z318" s="57"/>
     </row>
     <row r="319" spans="1:26" ht="30" customHeight="1">
-      <c r="A319" s="94"/>
-      <c r="B319" s="92"/>
+      <c r="A319" s="105"/>
+      <c r="B319" s="106"/>
       <c r="C319" s="43"/>
       <c r="D319" s="44"/>
       <c r="E319" s="43"/>
@@ -9586,8 +9594,8 @@
       <c r="Z319" s="57"/>
     </row>
     <row r="320" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A320" s="94"/>
-      <c r="B320" s="92"/>
+      <c r="A320" s="105"/>
+      <c r="B320" s="106"/>
       <c r="C320" s="43"/>
       <c r="D320" s="44"/>
       <c r="E320" s="43"/>
@@ -9617,8 +9625,8 @@
       <c r="Z320" s="57"/>
     </row>
     <row r="321" spans="1:26" ht="48" customHeight="1">
-      <c r="A321" s="94"/>
-      <c r="B321" s="92"/>
+      <c r="A321" s="105"/>
+      <c r="B321" s="106"/>
       <c r="C321" s="43"/>
       <c r="D321" s="44"/>
       <c r="E321" s="43"/>
@@ -9648,8 +9656,8 @@
       <c r="Z321" s="57"/>
     </row>
     <row r="322" spans="1:26" ht="60" customHeight="1">
-      <c r="A322" s="94"/>
-      <c r="B322" s="92"/>
+      <c r="A322" s="105"/>
+      <c r="B322" s="106"/>
       <c r="C322" s="43"/>
       <c r="D322" s="44"/>
       <c r="E322" s="60"/>
@@ -9679,8 +9687,8 @@
       <c r="Z322" s="57"/>
     </row>
     <row r="323" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A323" s="94"/>
-      <c r="B323" s="92"/>
+      <c r="A323" s="105"/>
+      <c r="B323" s="106"/>
       <c r="C323" s="43"/>
       <c r="D323" s="44"/>
       <c r="E323" s="43"/>
@@ -9710,8 +9718,8 @@
       <c r="Z323" s="57"/>
     </row>
     <row r="324" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A324" s="94"/>
-      <c r="B324" s="92"/>
+      <c r="A324" s="105"/>
+      <c r="B324" s="106"/>
       <c r="C324" s="43"/>
       <c r="D324" s="44"/>
       <c r="E324" s="43"/>
@@ -9741,8 +9749,8 @@
       <c r="Z324" s="57"/>
     </row>
     <row r="325" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A325" s="94"/>
-      <c r="B325" s="92"/>
+      <c r="A325" s="105"/>
+      <c r="B325" s="106"/>
       <c r="C325" s="20"/>
       <c r="D325" s="21"/>
       <c r="E325" s="20"/>
@@ -9754,8 +9762,8 @@
       </c>
     </row>
     <row r="326" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A326" s="94"/>
-      <c r="B326" s="92"/>
+      <c r="A326" s="105"/>
+      <c r="B326" s="106"/>
       <c r="C326" s="20"/>
       <c r="D326" s="21"/>
       <c r="E326" s="20"/>
@@ -9767,8 +9775,8 @@
       </c>
     </row>
     <row r="327" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A327" s="94"/>
-      <c r="B327" s="92"/>
+      <c r="A327" s="105"/>
+      <c r="B327" s="106"/>
       <c r="C327" s="20"/>
       <c r="D327" s="21"/>
       <c r="E327" s="20"/>
@@ -9777,8 +9785,8 @@
       <c r="H327" s="15"/>
     </row>
     <row r="328" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A328" s="94"/>
-      <c r="B328" s="92"/>
+      <c r="A328" s="105"/>
+      <c r="B328" s="106"/>
       <c r="C328" s="20"/>
       <c r="D328" s="21"/>
       <c r="E328" s="20"/>
@@ -9787,8 +9795,8 @@
       <c r="H328" s="15"/>
     </row>
     <row r="329" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A329" s="94"/>
-      <c r="B329" s="92"/>
+      <c r="A329" s="105"/>
+      <c r="B329" s="106"/>
       <c r="C329" s="20"/>
       <c r="D329" s="21"/>
       <c r="E329" s="20"/>
@@ -9797,8 +9805,8 @@
       <c r="H329" s="15"/>
     </row>
     <row r="330" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A330" s="94"/>
-      <c r="B330" s="92"/>
+      <c r="A330" s="105"/>
+      <c r="B330" s="106"/>
       <c r="C330" s="20"/>
       <c r="D330" s="21"/>
       <c r="E330" s="20"/>
@@ -9810,8 +9818,8 @@
       </c>
     </row>
     <row r="331" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A331" s="94"/>
-      <c r="B331" s="92"/>
+      <c r="A331" s="105"/>
+      <c r="B331" s="106"/>
       <c r="C331" s="20"/>
       <c r="D331" s="21"/>
       <c r="E331" s="20"/>
@@ -9823,8 +9831,8 @@
       </c>
     </row>
     <row r="332" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A332" s="94"/>
-      <c r="B332" s="92"/>
+      <c r="A332" s="105"/>
+      <c r="B332" s="106"/>
       <c r="C332" s="20"/>
       <c r="D332" s="21"/>
       <c r="E332" s="20"/>
@@ -9836,8 +9844,8 @@
       </c>
     </row>
     <row r="333" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A333" s="94"/>
-      <c r="B333" s="92"/>
+      <c r="A333" s="105"/>
+      <c r="B333" s="106"/>
       <c r="C333" s="20"/>
       <c r="D333" s="21"/>
       <c r="E333" s="20"/>
@@ -9849,8 +9857,8 @@
       </c>
     </row>
     <row r="334" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A334" s="94"/>
-      <c r="B334" s="92"/>
+      <c r="A334" s="105"/>
+      <c r="B334" s="106"/>
       <c r="C334" s="20"/>
       <c r="D334" s="21"/>
       <c r="E334" s="20"/>
@@ -9862,8 +9870,8 @@
       </c>
     </row>
     <row r="335" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A335" s="94"/>
-      <c r="B335" s="92"/>
+      <c r="A335" s="105"/>
+      <c r="B335" s="106"/>
       <c r="C335" s="20"/>
       <c r="D335" s="21"/>
       <c r="E335" s="20"/>
@@ -9875,8 +9883,8 @@
       </c>
     </row>
     <row r="336" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A336" s="94"/>
-      <c r="B336" s="92"/>
+      <c r="A336" s="105"/>
+      <c r="B336" s="106"/>
       <c r="C336" s="20"/>
       <c r="D336" s="21"/>
       <c r="E336" s="20"/>
@@ -9888,8 +9896,8 @@
       </c>
     </row>
     <row r="337" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A337" s="94"/>
-      <c r="B337" s="92"/>
+      <c r="A337" s="105"/>
+      <c r="B337" s="106"/>
       <c r="C337" s="20"/>
       <c r="D337" s="21"/>
       <c r="E337" s="20"/>
@@ -9901,8 +9909,8 @@
       </c>
     </row>
     <row r="338" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A338" s="94"/>
-      <c r="B338" s="92"/>
+      <c r="A338" s="105"/>
+      <c r="B338" s="106"/>
       <c r="C338" s="20"/>
       <c r="D338" s="21"/>
       <c r="E338" s="20"/>
@@ -9914,8 +9922,8 @@
       </c>
     </row>
     <row r="339" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A339" s="94"/>
-      <c r="B339" s="92"/>
+      <c r="A339" s="105"/>
+      <c r="B339" s="106"/>
       <c r="C339" s="20"/>
       <c r="D339" s="21"/>
       <c r="E339" s="20"/>
@@ -9927,8 +9935,8 @@
       </c>
     </row>
     <row r="340" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A340" s="94"/>
-      <c r="B340" s="92"/>
+      <c r="A340" s="105"/>
+      <c r="B340" s="106"/>
       <c r="C340" s="20"/>
       <c r="D340" s="21"/>
       <c r="E340" s="20"/>
@@ -9940,8 +9948,8 @@
       </c>
     </row>
     <row r="341" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A341" s="94"/>
-      <c r="B341" s="92"/>
+      <c r="A341" s="105"/>
+      <c r="B341" s="106"/>
       <c r="C341" s="20"/>
       <c r="D341" s="21"/>
       <c r="E341" s="20"/>
@@ -9953,8 +9961,8 @@
       </c>
     </row>
     <row r="342" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A342" s="94"/>
-      <c r="B342" s="92"/>
+      <c r="A342" s="105"/>
+      <c r="B342" s="106"/>
       <c r="C342" s="20"/>
       <c r="D342" s="21"/>
       <c r="E342" s="20"/>
@@ -10013,14 +10021,14 @@
       <c r="H345" s="34"/>
     </row>
     <row r="346" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A346" s="95" t="s">
+      <c r="A346" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B346" s="96"/>
-      <c r="C346" s="96"/>
-      <c r="D346" s="96"/>
-      <c r="E346" s="96"/>
-      <c r="F346" s="97"/>
+      <c r="B346" s="108"/>
+      <c r="C346" s="108"/>
+      <c r="D346" s="108"/>
+      <c r="E346" s="108"/>
+      <c r="F346" s="109"/>
       <c r="G346" s="38" t="e">
         <f>G343/G344*G345</f>
         <v>#DIV/0!</v>
@@ -10040,40 +10048,40 @@
       <c r="H347" s="40"/>
     </row>
     <row r="348" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A348" s="98"/>
-      <c r="B348" s="99"/>
-      <c r="C348" s="99"/>
-      <c r="D348" s="99"/>
-      <c r="E348" s="99"/>
-      <c r="F348" s="99"/>
-      <c r="G348" s="100"/>
+      <c r="A348" s="110"/>
+      <c r="B348" s="111"/>
+      <c r="C348" s="111"/>
+      <c r="D348" s="111"/>
+      <c r="E348" s="111"/>
+      <c r="F348" s="111"/>
+      <c r="G348" s="112"/>
       <c r="H348" s="34"/>
     </row>
     <row r="349" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A349" s="101"/>
-      <c r="B349" s="99"/>
-      <c r="C349" s="99"/>
-      <c r="D349" s="99"/>
-      <c r="E349" s="99"/>
-      <c r="F349" s="99"/>
-      <c r="G349" s="100"/>
+      <c r="A349" s="113"/>
+      <c r="B349" s="111"/>
+      <c r="C349" s="111"/>
+      <c r="D349" s="111"/>
+      <c r="E349" s="111"/>
+      <c r="F349" s="111"/>
+      <c r="G349" s="112"/>
       <c r="H349" s="34"/>
     </row>
     <row r="350" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A350" s="102"/>
-      <c r="B350" s="103"/>
-      <c r="C350" s="103"/>
-      <c r="D350" s="103"/>
-      <c r="E350" s="103"/>
-      <c r="F350" s="103"/>
-      <c r="G350" s="104"/>
+      <c r="A350" s="114"/>
+      <c r="B350" s="115"/>
+      <c r="C350" s="115"/>
+      <c r="D350" s="115"/>
+      <c r="E350" s="115"/>
+      <c r="F350" s="115"/>
+      <c r="G350" s="116"/>
       <c r="H350" s="34"/>
     </row>
     <row r="351" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A351" s="106" t="s">
+      <c r="A351" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="B351" s="107"/>
+      <c r="B351" s="118"/>
       <c r="C351" s="61">
         <v>0</v>
       </c>
@@ -10094,8 +10102,8 @@
       </c>
     </row>
     <row r="352" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A352" s="93"/>
-      <c r="B352" s="92"/>
+      <c r="A352" s="119"/>
+      <c r="B352" s="106"/>
       <c r="C352" s="12"/>
       <c r="D352" s="12"/>
       <c r="E352" s="12"/>
@@ -10125,8 +10133,8 @@
       <c r="Z352" s="57"/>
     </row>
     <row r="353" spans="1:26" ht="43.5" customHeight="1">
-      <c r="A353" s="94"/>
-      <c r="B353" s="92"/>
+      <c r="A353" s="105"/>
+      <c r="B353" s="106"/>
       <c r="C353" s="43"/>
       <c r="D353" s="43"/>
       <c r="E353" s="43"/>
@@ -10156,8 +10164,8 @@
       <c r="Z353" s="57"/>
     </row>
     <row r="354" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A354" s="94"/>
-      <c r="B354" s="92"/>
+      <c r="A354" s="105"/>
+      <c r="B354" s="106"/>
       <c r="C354" s="43"/>
       <c r="D354" s="43"/>
       <c r="E354" s="43"/>
@@ -10187,8 +10195,8 @@
       <c r="Z354" s="57"/>
     </row>
     <row r="355" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A355" s="94"/>
-      <c r="B355" s="92"/>
+      <c r="A355" s="105"/>
+      <c r="B355" s="106"/>
       <c r="C355" s="43"/>
       <c r="D355" s="43"/>
       <c r="E355" s="43"/>
@@ -10218,8 +10226,8 @@
       <c r="Z355" s="57"/>
     </row>
     <row r="356" spans="1:26" ht="31.5" customHeight="1">
-      <c r="A356" s="94"/>
-      <c r="B356" s="92"/>
+      <c r="A356" s="105"/>
+      <c r="B356" s="106"/>
       <c r="C356" s="43"/>
       <c r="D356" s="43"/>
       <c r="E356" s="43"/>
@@ -10249,8 +10257,8 @@
       <c r="Z356" s="57"/>
     </row>
     <row r="357" spans="1:26" ht="60" customHeight="1">
-      <c r="A357" s="94"/>
-      <c r="B357" s="92"/>
+      <c r="A357" s="105"/>
+      <c r="B357" s="106"/>
       <c r="C357" s="43"/>
       <c r="D357" s="43"/>
       <c r="E357" s="43"/>
@@ -10280,8 +10288,8 @@
       <c r="Z357" s="57"/>
     </row>
     <row r="358" spans="1:26" ht="33" customHeight="1">
-      <c r="A358" s="94"/>
-      <c r="B358" s="92"/>
+      <c r="A358" s="105"/>
+      <c r="B358" s="106"/>
       <c r="C358" s="43"/>
       <c r="D358" s="43"/>
       <c r="E358" s="43"/>
@@ -10311,8 +10319,8 @@
       <c r="Z358" s="57"/>
     </row>
     <row r="359" spans="1:26" ht="45" customHeight="1">
-      <c r="A359" s="94"/>
-      <c r="B359" s="92"/>
+      <c r="A359" s="105"/>
+      <c r="B359" s="106"/>
       <c r="C359" s="43"/>
       <c r="D359" s="43"/>
       <c r="E359" s="43"/>
@@ -10342,8 +10350,8 @@
       <c r="Z359" s="57"/>
     </row>
     <row r="360" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A360" s="94"/>
-      <c r="B360" s="92"/>
+      <c r="A360" s="105"/>
+      <c r="B360" s="106"/>
       <c r="C360" s="43"/>
       <c r="D360" s="43"/>
       <c r="E360" s="43"/>
@@ -10373,8 +10381,8 @@
       <c r="Z360" s="57"/>
     </row>
     <row r="361" spans="1:26" ht="62.25" customHeight="1">
-      <c r="A361" s="94"/>
-      <c r="B361" s="92"/>
+      <c r="A361" s="105"/>
+      <c r="B361" s="106"/>
       <c r="C361" s="43"/>
       <c r="D361" s="43"/>
       <c r="E361" s="43"/>
@@ -10404,8 +10412,8 @@
       <c r="Z361" s="57"/>
     </row>
     <row r="362" spans="1:26" ht="75.75" customHeight="1">
-      <c r="A362" s="94"/>
-      <c r="B362" s="92"/>
+      <c r="A362" s="105"/>
+      <c r="B362" s="106"/>
       <c r="C362" s="43"/>
       <c r="D362" s="43"/>
       <c r="E362" s="43"/>
@@ -10435,8 +10443,8 @@
       <c r="Z362" s="57"/>
     </row>
     <row r="363" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A363" s="94"/>
-      <c r="B363" s="92"/>
+      <c r="A363" s="105"/>
+      <c r="B363" s="106"/>
       <c r="C363" s="43"/>
       <c r="D363" s="43"/>
       <c r="E363" s="43"/>
@@ -10513,14 +10521,14 @@
       <c r="H366" s="34"/>
     </row>
     <row r="367" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A367" s="95" t="s">
+      <c r="A367" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B367" s="96"/>
-      <c r="C367" s="96"/>
-      <c r="D367" s="96"/>
-      <c r="E367" s="96"/>
-      <c r="F367" s="97"/>
+      <c r="B367" s="108"/>
+      <c r="C367" s="108"/>
+      <c r="D367" s="108"/>
+      <c r="E367" s="108"/>
+      <c r="F367" s="109"/>
       <c r="G367" s="38" t="e">
         <f>G364/G365*G366</f>
         <v>#DIV/0!</v>
@@ -10540,33 +10548,33 @@
       <c r="H368" s="40"/>
     </row>
     <row r="369" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A369" s="98"/>
-      <c r="B369" s="99"/>
-      <c r="C369" s="99"/>
-      <c r="D369" s="99"/>
-      <c r="E369" s="99"/>
-      <c r="F369" s="99"/>
-      <c r="G369" s="100"/>
+      <c r="A369" s="110"/>
+      <c r="B369" s="111"/>
+      <c r="C369" s="111"/>
+      <c r="D369" s="111"/>
+      <c r="E369" s="111"/>
+      <c r="F369" s="111"/>
+      <c r="G369" s="112"/>
       <c r="H369" s="34"/>
     </row>
     <row r="370" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A370" s="101"/>
-      <c r="B370" s="99"/>
-      <c r="C370" s="99"/>
-      <c r="D370" s="99"/>
-      <c r="E370" s="99"/>
-      <c r="F370" s="99"/>
-      <c r="G370" s="100"/>
+      <c r="A370" s="113"/>
+      <c r="B370" s="111"/>
+      <c r="C370" s="111"/>
+      <c r="D370" s="111"/>
+      <c r="E370" s="111"/>
+      <c r="F370" s="111"/>
+      <c r="G370" s="112"/>
       <c r="H370" s="34"/>
     </row>
     <row r="371" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A371" s="102"/>
-      <c r="B371" s="103"/>
-      <c r="C371" s="103"/>
-      <c r="D371" s="103"/>
-      <c r="E371" s="103"/>
-      <c r="F371" s="103"/>
-      <c r="G371" s="104"/>
+      <c r="A371" s="114"/>
+      <c r="B371" s="115"/>
+      <c r="C371" s="115"/>
+      <c r="D371" s="115"/>
+      <c r="E371" s="115"/>
+      <c r="F371" s="115"/>
+      <c r="G371" s="116"/>
       <c r="H371" s="34"/>
     </row>
     <row r="372" spans="1:8" ht="15.75" customHeight="1">
@@ -16981,24 +16989,273 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A346:F346"/>
-    <mergeCell ref="A348:G350"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A24:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A54:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A83:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A117:G119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A147:G149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A200:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A262:G264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A367:F367"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:B326"/>
     <mergeCell ref="A369:G371"/>
     <mergeCell ref="A351:B351"/>
     <mergeCell ref="A352:B352"/>
@@ -17023,280 +17280,31 @@
     <mergeCell ref="A309:B309"/>
     <mergeCell ref="A310:B310"/>
     <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:B360"/>
-    <mergeCell ref="A361:B361"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A367:F367"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A260:F260"/>
-    <mergeCell ref="A262:G264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A200:G202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A147:G149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A117:G119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A83:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A54:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A24:G26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A346:F346"/>
+    <mergeCell ref="A348:G350"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G21 G51 G80 G114 G144 G197 G259 G294 G345 G366">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G21 G51 G80 G114 G144 G197 G259 G294 G345 G366" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G3">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -17311,30 +17319,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="26" width="10" customWidth="1"/>
   </cols>
@@ -21782,26 +21790,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="109.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -21839,13 +21847,13 @@
       </c>
       <c r="E2" s="85"/>
       <c r="F2" s="86">
-        <f t="shared" ref="F2:F65" si="0">D2*E2*100</f>
+        <f t="shared" ref="F2:F3" si="0">D2*E2*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="84">
-        <f t="shared" ref="A3:A66" si="1">A2+1</f>
+        <f t="shared" ref="A3" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="84" t="str">
@@ -21868,7 +21876,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="126">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A67" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="127" t="str">
@@ -21887,13 +21895,13 @@
         <v>0.7</v>
       </c>
       <c r="F4" s="129">
-        <f>D4*E4*100</f>
+        <f t="shared" ref="F4:F67" si="3">D4*E4*100</f>
         <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="126">
-        <f>A4+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" s="127" t="str">
@@ -21912,13 +21920,13 @@
         <v>0.7</v>
       </c>
       <c r="F5" s="129">
-        <f>D5*E5*100</f>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="84">
-        <f>A5+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="84" t="str">
@@ -21935,13 +21943,13 @@
       </c>
       <c r="E6" s="85"/>
       <c r="F6" s="86">
-        <f>D6*E6*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="84">
-        <f>A6+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="84" t="str">
@@ -21958,13 +21966,13 @@
       </c>
       <c r="E7" s="85"/>
       <c r="F7" s="86">
-        <f>D7*E7*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="84">
-        <f>A7+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="84" t="str">
@@ -21981,13 +21989,13 @@
       </c>
       <c r="E8" s="85"/>
       <c r="F8" s="86">
-        <f>D8*E8*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="84">
-        <f>A8+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="84" t="str">
@@ -22004,13 +22012,13 @@
       </c>
       <c r="E9" s="85"/>
       <c r="F9" s="86">
-        <f>D9*E9*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="84">
-        <f>A9+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="84" t="str">
@@ -22027,13 +22035,13 @@
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="86">
-        <f>D10*E10*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="84">
-        <f>A10+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="84" t="str">
@@ -22050,13 +22058,13 @@
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="86">
-        <f>D11*E11*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="84">
-        <f>A11+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="84" t="str">
@@ -22073,13 +22081,13 @@
       </c>
       <c r="E12" s="85"/>
       <c r="F12" s="86">
-        <f>D12*E12*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="84">
-        <f>A12+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="84" t="str">
@@ -22096,13 +22104,13 @@
       </c>
       <c r="E13" s="85"/>
       <c r="F13" s="86">
-        <f>D13*E13*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="84">
-        <f>A13+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="84" t="str">
@@ -22119,13 +22127,13 @@
       </c>
       <c r="E14" s="85"/>
       <c r="F14" s="86">
-        <f>D14*E14*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="84">
-        <f>A14+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="84" t="str">
@@ -22142,13 +22150,13 @@
       </c>
       <c r="E15" s="85"/>
       <c r="F15" s="86">
-        <f>D15*E15*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="84">
-        <f>A15+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="84" t="str">
@@ -22165,13 +22173,13 @@
       </c>
       <c r="E16" s="85"/>
       <c r="F16" s="86">
-        <f>D16*E16*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="84">
-        <f>A16+1</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="84" t="str">
@@ -22188,13 +22196,13 @@
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="86">
-        <f>D17*E17*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="84">
-        <f>A17+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="84" t="str">
@@ -22211,13 +22219,13 @@
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="86">
-        <f>D18*E18*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="84">
-        <f>A18+1</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="84" t="str">
@@ -22234,13 +22242,13 @@
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="86">
-        <f>D19*E19*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="126">
-        <f>A19+1</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="127" t="str">
@@ -22259,13 +22267,13 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="129">
-        <f>D20*E20*100</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="126">
-        <f>A20+1</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" s="127" t="str">
@@ -22284,13 +22292,13 @@
         <v>0.6</v>
       </c>
       <c r="F21" s="129">
-        <f>D21*E21*100</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="84">
-        <f>A21+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" s="84" t="str">
@@ -22307,13 +22315,13 @@
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="86">
-        <f>D22*E22*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="84">
-        <f>A22+1</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="84" t="str">
@@ -22330,13 +22338,13 @@
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="86">
-        <f>D23*E23*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="84">
-        <f>A23+1</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="84" t="str">
@@ -22353,13 +22361,13 @@
       </c>
       <c r="E24" s="85"/>
       <c r="F24" s="86">
-        <f>D24*E24*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="84">
-        <f>A24+1</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25" s="84" t="str">
@@ -22376,13 +22384,13 @@
       </c>
       <c r="E25" s="85"/>
       <c r="F25" s="86">
-        <f>D25*E25*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="84">
-        <f>A25+1</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26" s="84" t="str">
@@ -22399,13 +22407,13 @@
       </c>
       <c r="E26" s="85"/>
       <c r="F26" s="86">
-        <f>D26*E26*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="84">
-        <f>A26+1</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" s="84" t="str">
@@ -22422,13 +22430,13 @@
       </c>
       <c r="E27" s="85"/>
       <c r="F27" s="86">
-        <f>D27*E27*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="84">
-        <f>A27+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" s="84" t="str">
@@ -22445,13 +22453,13 @@
       </c>
       <c r="E28" s="85"/>
       <c r="F28" s="86">
-        <f>D28*E28*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="84">
-        <f>A28+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" s="84" t="str">
@@ -22468,13 +22476,13 @@
       </c>
       <c r="E29" s="85"/>
       <c r="F29" s="86">
-        <f>D29*E29*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="84">
-        <f>A29+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" s="84" t="str">
@@ -22491,13 +22499,13 @@
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="86">
-        <f>D30*E30*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="84">
-        <f>A30+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" s="84" t="str">
@@ -22514,13 +22522,13 @@
       </c>
       <c r="E31" s="85"/>
       <c r="F31" s="86">
-        <f>D31*E31*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="84">
-        <f>A31+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" s="84" t="str">
@@ -22537,13 +22545,13 @@
       </c>
       <c r="E32" s="85"/>
       <c r="F32" s="86">
-        <f>D32*E32*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="84">
-        <f>A32+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" s="84" t="str">
@@ -22560,13 +22568,13 @@
       </c>
       <c r="E33" s="85"/>
       <c r="F33" s="86">
-        <f>D33*E33*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="84">
-        <f>A33+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34" s="84" t="str">
@@ -22583,13 +22591,13 @@
       </c>
       <c r="E34" s="85"/>
       <c r="F34" s="86">
-        <f>D34*E34*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="84">
-        <f>A34+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" s="84" t="str">
@@ -22606,13 +22614,13 @@
       </c>
       <c r="E35" s="85"/>
       <c r="F35" s="86">
-        <f>D35*E35*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="84">
-        <f>A35+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" s="84" t="str">
@@ -22629,13 +22637,13 @@
       </c>
       <c r="E36" s="85"/>
       <c r="F36" s="86">
-        <f>D36*E36*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="84">
-        <f>A36+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B37" s="84" t="str">
@@ -22652,13 +22660,13 @@
       </c>
       <c r="E37" s="85"/>
       <c r="F37" s="86">
-        <f>D37*E37*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="84">
-        <f>A37+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B38" s="84" t="str">
@@ -22675,13 +22683,13 @@
       </c>
       <c r="E38" s="85"/>
       <c r="F38" s="86">
-        <f>D38*E38*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="84">
-        <f>A38+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B39" s="84" t="str">
@@ -22698,13 +22706,13 @@
       </c>
       <c r="E39" s="85"/>
       <c r="F39" s="86">
-        <f>D39*E39*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="84">
-        <f>A39+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B40" s="84" t="str">
@@ -22721,13 +22729,13 @@
       </c>
       <c r="E40" s="85"/>
       <c r="F40" s="86">
-        <f>D40*E40*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="126">
-        <f>A40+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B41" s="127" t="str">
@@ -22746,13 +22754,13 @@
         <v>0.4</v>
       </c>
       <c r="F41" s="129">
-        <f>D41*E41*100</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="84">
-        <f>A41+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B42" s="70" t="str">
@@ -22769,13 +22777,13 @@
       </c>
       <c r="E42" s="85"/>
       <c r="F42" s="86">
-        <f>D42*E42*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="84">
-        <f>A42+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B43" s="70" t="str">
@@ -22792,13 +22800,13 @@
       </c>
       <c r="E43" s="85"/>
       <c r="F43" s="86">
-        <f>D43*E43*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="84">
-        <f>A43+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B44" s="70" t="str">
@@ -22815,13 +22823,13 @@
       </c>
       <c r="E44" s="85"/>
       <c r="F44" s="86">
-        <f>D44*E44*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="84">
-        <f>A44+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B45" s="70" t="str">
@@ -22838,13 +22846,13 @@
       </c>
       <c r="E45" s="85"/>
       <c r="F45" s="86">
-        <f>D45*E45*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="84">
-        <f>A45+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B46" s="70" t="str">
@@ -22861,13 +22869,13 @@
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="86">
-        <f>D46*E46*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="84">
-        <f>A46+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B47" s="70" t="str">
@@ -22884,13 +22892,13 @@
       </c>
       <c r="E47" s="85"/>
       <c r="F47" s="86">
-        <f>D47*E47*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="84">
-        <f>A47+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B48" s="70" t="str">
@@ -22907,13 +22915,13 @@
       </c>
       <c r="E48" s="85"/>
       <c r="F48" s="86">
-        <f>D48*E48*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="84">
-        <f>A48+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B49" s="70" t="str">
@@ -22930,13 +22938,13 @@
       </c>
       <c r="E49" s="85"/>
       <c r="F49" s="86">
-        <f>D49*E49*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="84">
-        <f>A49+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B50" s="70" t="str">
@@ -22953,13 +22961,13 @@
       </c>
       <c r="E50" s="85"/>
       <c r="F50" s="86">
-        <f>D50*E50*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="84">
-        <f>A50+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B51" s="70" t="str">
@@ -22976,13 +22984,13 @@
       </c>
       <c r="E51" s="85"/>
       <c r="F51" s="86">
-        <f>D51*E51*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="84">
-        <f>A51+1</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B52" s="70" t="str">
@@ -22999,13 +23007,13 @@
       </c>
       <c r="E52" s="85"/>
       <c r="F52" s="86">
-        <f>D52*E52*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="84">
-        <f>A52+1</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B53" s="70" t="str">
@@ -23022,13 +23030,13 @@
       </c>
       <c r="E53" s="85"/>
       <c r="F53" s="86">
-        <f>D53*E53*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="84">
-        <f>A53+1</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B54" s="70" t="str">
@@ -23045,13 +23053,13 @@
       </c>
       <c r="E54" s="85"/>
       <c r="F54" s="86">
-        <f>D54*E54*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="84">
-        <f>A54+1</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B55" s="70" t="str">
@@ -23068,13 +23076,13 @@
       </c>
       <c r="E55" s="85"/>
       <c r="F55" s="86">
-        <f>D55*E55*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="84">
-        <f>A55+1</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B56" s="70" t="str">
@@ -23091,13 +23099,13 @@
       </c>
       <c r="E56" s="85"/>
       <c r="F56" s="86">
-        <f>D56*E56*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="84">
-        <f>A56+1</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B57" s="70" t="str">
@@ -23114,13 +23122,13 @@
       </c>
       <c r="E57" s="85"/>
       <c r="F57" s="86">
-        <f>D57*E57*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="84">
-        <f>A57+1</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58" s="70" t="str">
@@ -23137,13 +23145,13 @@
       </c>
       <c r="E58" s="85"/>
       <c r="F58" s="86">
-        <f>D58*E58*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="84">
-        <f>A58+1</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" s="70" t="str">
@@ -23160,13 +23168,13 @@
       </c>
       <c r="E59" s="85"/>
       <c r="F59" s="86">
-        <f>D59*E59*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="84">
-        <f>A59+1</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" s="70" t="str">
@@ -23183,13 +23191,13 @@
       </c>
       <c r="E60" s="85"/>
       <c r="F60" s="86">
-        <f>D60*E60*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="126">
-        <f>A60+1</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" s="126" t="str">
@@ -23208,13 +23216,13 @@
         <v>0.3</v>
       </c>
       <c r="F61" s="129">
-        <f>D61*E61*100</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="84">
-        <f>A61+1</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" s="84" t="str">
@@ -23233,13 +23241,13 @@
         <v>0.2</v>
       </c>
       <c r="F62" s="86">
-        <f>D62*E62*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="84">
-        <f>A62+1</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63" s="70" t="str">
@@ -23258,13 +23266,13 @@
         <v>0.2</v>
       </c>
       <c r="F63" s="86">
-        <f>D63*E63*100</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="84">
-        <f>A63+1</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" s="70" t="str">
@@ -23283,13 +23291,13 @@
         <v>0.15</v>
       </c>
       <c r="F64" s="86">
-        <f>D64*E64*100</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="84">
-        <f>A64+1</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" s="84" t="str">
@@ -23308,13 +23316,13 @@
         <v>0.1</v>
       </c>
       <c r="F65" s="86">
-        <f>D65*E65*100</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="84">
-        <f>A65+1</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" s="84" t="str">
@@ -23333,13 +23341,13 @@
         <v>0.1</v>
       </c>
       <c r="F66" s="86">
-        <f>D66*E66*100</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="84">
-        <f>A66+1</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="70" t="str">
@@ -23356,13 +23364,13 @@
       </c>
       <c r="E67" s="85"/>
       <c r="F67" s="86">
-        <f>D67*E67*100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="84">
-        <f>A67+1</f>
+        <f t="shared" ref="A68:A131" si="4">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="70" t="str">
@@ -23379,13 +23387,13 @@
       </c>
       <c r="E68" s="85"/>
       <c r="F68" s="86">
-        <f>D68*E68*100</f>
+        <f t="shared" ref="F68:F131" si="5">D68*E68*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="84">
-        <f>A68+1</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B69" s="70" t="str">
@@ -23402,13 +23410,13 @@
       </c>
       <c r="E69" s="85"/>
       <c r="F69" s="86">
-        <f>D69*E69*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="84">
-        <f>A69+1</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B70" s="70" t="str">
@@ -23425,13 +23433,13 @@
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="86">
-        <f>D70*E70*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="84">
-        <f>A70+1</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B71" s="70" t="str">
@@ -23448,13 +23456,13 @@
       </c>
       <c r="E71" s="85"/>
       <c r="F71" s="86">
-        <f>D71*E71*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="84">
-        <f>A71+1</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B72" s="70" t="str">
@@ -23471,13 +23479,13 @@
       </c>
       <c r="E72" s="85"/>
       <c r="F72" s="86">
-        <f>D72*E72*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="84">
-        <f>A72+1</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B73" s="70" t="str">
@@ -23494,13 +23502,13 @@
       </c>
       <c r="E73" s="85"/>
       <c r="F73" s="86">
-        <f>D73*E73*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1">
       <c r="A74" s="84">
-        <f>A73+1</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B74" s="70" t="str">
@@ -23517,13 +23525,13 @@
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="86">
-        <f>D74*E74*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="84">
-        <f>A74+1</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B75" s="70" t="str">
@@ -23540,13 +23548,13 @@
       </c>
       <c r="E75" s="85"/>
       <c r="F75" s="86">
-        <f>D75*E75*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="84">
-        <f>A75+1</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B76" s="70" t="str">
@@ -23563,13 +23571,13 @@
       </c>
       <c r="E76" s="85"/>
       <c r="F76" s="86">
-        <f>D76*E76*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1">
       <c r="A77" s="84">
-        <f>A76+1</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B77" s="70" t="str">
@@ -23586,13 +23594,13 @@
       </c>
       <c r="E77" s="85"/>
       <c r="F77" s="86">
-        <f>D77*E77*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="84">
-        <f>A77+1</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B78" s="70" t="str">
@@ -23609,13 +23617,13 @@
       </c>
       <c r="E78" s="85"/>
       <c r="F78" s="86">
-        <f>D78*E78*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="84">
-        <f>A78+1</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" s="70" t="str">
@@ -23632,13 +23640,13 @@
       </c>
       <c r="E79" s="85"/>
       <c r="F79" s="86">
-        <f>D79*E79*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="84">
-        <f>A79+1</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" s="70" t="str">
@@ -23655,13 +23663,13 @@
       </c>
       <c r="E80" s="85"/>
       <c r="F80" s="86">
-        <f>D80*E80*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="84">
-        <f>A80+1</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" s="70" t="str">
@@ -23678,13 +23686,13 @@
       </c>
       <c r="E81" s="85"/>
       <c r="F81" s="86">
-        <f>D81*E81*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="84">
-        <f>A81+1</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B82" s="70" t="str">
@@ -23701,13 +23709,13 @@
       </c>
       <c r="E82" s="85"/>
       <c r="F82" s="86">
-        <f>D82*E82*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="84">
-        <f>A82+1</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B83" s="70" t="str">
@@ -23724,13 +23732,13 @@
       </c>
       <c r="E83" s="85"/>
       <c r="F83" s="86">
-        <f>D83*E83*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="84">
-        <f>A83+1</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B84" s="70" t="str">
@@ -23747,13 +23755,13 @@
       </c>
       <c r="E84" s="85"/>
       <c r="F84" s="86">
-        <f>D84*E84*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="84">
-        <f>A84+1</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B85" s="70" t="str">
@@ -23770,13 +23778,13 @@
       </c>
       <c r="E85" s="85"/>
       <c r="F85" s="86">
-        <f>D85*E85*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="84">
-        <f>A85+1</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B86" s="70" t="str">
@@ -23793,13 +23801,13 @@
       </c>
       <c r="E86" s="85"/>
       <c r="F86" s="86">
-        <f>D86*E86*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="84">
-        <f>A86+1</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B87" s="70" t="str">
@@ -23818,13 +23826,13 @@
         <v>0.1</v>
       </c>
       <c r="F87" s="86">
-        <f>D87*E87*100</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="84">
-        <f>A87+1</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B88" s="70" t="str">
@@ -23841,13 +23849,13 @@
       </c>
       <c r="E88" s="85"/>
       <c r="F88" s="86">
-        <f>D88*E88*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="84">
-        <f>A88+1</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B89" s="70" t="str">
@@ -23864,13 +23872,13 @@
       </c>
       <c r="E89" s="85"/>
       <c r="F89" s="86">
-        <f>D89*E89*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="84">
-        <f>A89+1</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B90" s="70" t="str">
@@ -23887,13 +23895,13 @@
       </c>
       <c r="E90" s="85"/>
       <c r="F90" s="86">
-        <f>D90*E90*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="84">
-        <f>A90+1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B91" s="70" t="str">
@@ -23910,13 +23918,13 @@
       </c>
       <c r="E91" s="85"/>
       <c r="F91" s="86">
-        <f>D91*E91*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="84">
-        <f>A91+1</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B92" s="70" t="str">
@@ -23933,13 +23941,13 @@
       </c>
       <c r="E92" s="85"/>
       <c r="F92" s="86">
-        <f>D92*E92*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="84">
-        <f>A92+1</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B93" s="70" t="str">
@@ -23956,13 +23964,13 @@
       </c>
       <c r="E93" s="85"/>
       <c r="F93" s="86">
-        <f>D93*E93*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="84">
-        <f>A93+1</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B94" s="70" t="str">
@@ -23979,13 +23987,13 @@
       </c>
       <c r="E94" s="85"/>
       <c r="F94" s="86">
-        <f>D94*E94*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="84">
-        <f>A94+1</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B95" s="70" t="str">
@@ -24002,13 +24010,13 @@
       </c>
       <c r="E95" s="85"/>
       <c r="F95" s="86">
-        <f>D95*E95*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="84">
-        <f>A95+1</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B96" s="70" t="str">
@@ -24025,13 +24033,13 @@
       </c>
       <c r="E96" s="85"/>
       <c r="F96" s="86">
-        <f>D96*E96*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="84">
-        <f>A96+1</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B97" s="70" t="str">
@@ -24048,13 +24056,13 @@
       </c>
       <c r="E97" s="85"/>
       <c r="F97" s="86">
-        <f>D97*E97*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1">
       <c r="A98" s="84">
-        <f>A97+1</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B98" s="70" t="str">
@@ -24071,13 +24079,13 @@
       </c>
       <c r="E98" s="85"/>
       <c r="F98" s="86">
-        <f>D98*E98*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="84">
-        <f>A98+1</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" s="70" t="str">
@@ -24094,13 +24102,13 @@
       </c>
       <c r="E99" s="85"/>
       <c r="F99" s="86">
-        <f>D99*E99*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1">
       <c r="A100" s="84">
-        <f>A99+1</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B100" s="70" t="str">
@@ -24117,13 +24125,13 @@
       </c>
       <c r="E100" s="85"/>
       <c r="F100" s="86">
-        <f>D100*E100*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="84">
-        <f>A100+1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B101" s="70" t="str">
@@ -24140,13 +24148,13 @@
       </c>
       <c r="E101" s="85"/>
       <c r="F101" s="86">
-        <f>D101*E101*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="84">
-        <f>A101+1</f>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B102" s="70" t="str">
@@ -24163,13 +24171,13 @@
       </c>
       <c r="E102" s="85"/>
       <c r="F102" s="86">
-        <f>D102*E102*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="84">
-        <f>A102+1</f>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B103" s="70" t="str">
@@ -24186,13 +24194,13 @@
       </c>
       <c r="E103" s="85"/>
       <c r="F103" s="86">
-        <f>D103*E103*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="84">
-        <f>A103+1</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B104" s="70" t="str">
@@ -24209,13 +24217,13 @@
       </c>
       <c r="E104" s="85"/>
       <c r="F104" s="86">
-        <f>D104*E104*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="84">
-        <f>A104+1</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="B105" s="70" t="str">
@@ -24232,13 +24240,13 @@
       </c>
       <c r="E105" s="85"/>
       <c r="F105" s="86">
-        <f>D105*E105*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="84">
-        <f>A105+1</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="B106" s="70" t="str">
@@ -24255,13 +24263,13 @@
       </c>
       <c r="E106" s="85"/>
       <c r="F106" s="86">
-        <f>D106*E106*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="84">
-        <f>A106+1</f>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="B107" s="70" t="str">
@@ -24278,13 +24286,13 @@
       </c>
       <c r="E107" s="85"/>
       <c r="F107" s="86">
-        <f>D107*E107*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="84">
-        <f>A107+1</f>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B108" s="70" t="str">
@@ -24301,13 +24309,13 @@
       </c>
       <c r="E108" s="85"/>
       <c r="F108" s="86">
-        <f>D108*E108*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="84">
-        <f>A108+1</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B109" s="70" t="str">
@@ -24324,13 +24332,13 @@
       </c>
       <c r="E109" s="85"/>
       <c r="F109" s="86">
-        <f>D109*E109*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="84">
-        <f>A109+1</f>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B110" s="70" t="str">
@@ -24347,13 +24355,13 @@
       </c>
       <c r="E110" s="85"/>
       <c r="F110" s="86">
-        <f>D110*E110*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="84">
-        <f>A110+1</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B111" s="70" t="str">
@@ -24370,13 +24378,13 @@
       </c>
       <c r="E111" s="85"/>
       <c r="F111" s="86">
-        <f>D111*E111*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="84">
-        <f>A111+1</f>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B112" s="70" t="str">
@@ -24393,13 +24401,13 @@
       </c>
       <c r="E112" s="85"/>
       <c r="F112" s="86">
-        <f>D112*E112*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="84">
-        <f>A112+1</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="B113" s="70" t="str">
@@ -24416,13 +24424,13 @@
       </c>
       <c r="E113" s="85"/>
       <c r="F113" s="86">
-        <f>D113*E113*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="84">
-        <f>A113+1</f>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="B114" s="70" t="str">
@@ -24439,13 +24447,13 @@
       </c>
       <c r="E114" s="85"/>
       <c r="F114" s="86">
-        <f>D114*E114*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="84">
-        <f>A114+1</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="B115" s="70" t="str">
@@ -24462,13 +24470,13 @@
       </c>
       <c r="E115" s="85"/>
       <c r="F115" s="86">
-        <f>D115*E115*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1">
       <c r="A116" s="84">
-        <f>A115+1</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="B116" s="70" t="str">
@@ -24485,13 +24493,13 @@
       </c>
       <c r="E116" s="85"/>
       <c r="F116" s="86">
-        <f>D116*E116*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="84">
-        <f>A116+1</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="B117" s="70" t="str">
@@ -24508,13 +24516,13 @@
       </c>
       <c r="E117" s="85"/>
       <c r="F117" s="86">
-        <f>D117*E117*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1">
       <c r="A118" s="84">
-        <f>A117+1</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B118" s="70" t="str">
@@ -24531,13 +24539,13 @@
       </c>
       <c r="E118" s="85"/>
       <c r="F118" s="86">
-        <f>D118*E118*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="84">
-        <f>A118+1</f>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B119" s="70" t="str">
@@ -24554,13 +24562,13 @@
       </c>
       <c r="E119" s="85"/>
       <c r="F119" s="86">
-        <f>D119*E119*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1">
       <c r="A120" s="84">
-        <f>A119+1</f>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B120" s="70" t="str">
@@ -24577,13 +24585,13 @@
       </c>
       <c r="E120" s="85"/>
       <c r="F120" s="86">
-        <f>D120*E120*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="84">
-        <f>A120+1</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="B121" s="70" t="str">
@@ -24600,13 +24608,13 @@
       </c>
       <c r="E121" s="85"/>
       <c r="F121" s="86">
-        <f>D121*E121*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="84">
-        <f>A121+1</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B122" s="70" t="str">
@@ -24623,13 +24631,13 @@
       </c>
       <c r="E122" s="85"/>
       <c r="F122" s="86">
-        <f>D122*E122*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1">
       <c r="A123" s="84">
-        <f>A122+1</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B123" s="70" t="str">
@@ -24646,13 +24654,13 @@
       </c>
       <c r="E123" s="85"/>
       <c r="F123" s="86">
-        <f>D123*E123*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="84">
-        <f>A123+1</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B124" s="70" t="str">
@@ -24669,13 +24677,13 @@
       </c>
       <c r="E124" s="85"/>
       <c r="F124" s="86">
-        <f>D124*E124*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="84">
-        <f>A124+1</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B125" s="70" t="str">
@@ -24692,13 +24700,13 @@
       </c>
       <c r="E125" s="85"/>
       <c r="F125" s="86">
-        <f>D125*E125*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="84">
-        <f>A125+1</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B126" s="70" t="str">
@@ -24715,13 +24723,13 @@
       </c>
       <c r="E126" s="85"/>
       <c r="F126" s="86">
-        <f>D126*E126*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="84">
-        <f>A126+1</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B127" s="70" t="str">
@@ -24738,13 +24746,13 @@
       </c>
       <c r="E127" s="85"/>
       <c r="F127" s="86">
-        <f>D127*E127*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="84">
-        <f>A127+1</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B128" s="70" t="str">
@@ -24761,13 +24769,13 @@
       </c>
       <c r="E128" s="85"/>
       <c r="F128" s="86">
-        <f>D128*E128*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="84">
-        <f>A128+1</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B129" s="70" t="str">
@@ -24784,13 +24792,13 @@
       </c>
       <c r="E129" s="85"/>
       <c r="F129" s="86">
-        <f>D129*E129*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="84">
-        <f>A129+1</f>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B130" s="70" t="str">
@@ -24807,13 +24815,13 @@
       </c>
       <c r="E130" s="85"/>
       <c r="F130" s="86">
-        <f>D130*E130*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="84">
-        <f>A130+1</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B131" s="70" t="str">
@@ -24830,13 +24838,13 @@
       </c>
       <c r="E131" s="85"/>
       <c r="F131" s="86">
-        <f>D131*E131*100</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="84">
-        <f>A131+1</f>
+        <f t="shared" ref="A132:A195" si="6">A131+1</f>
         <v>131</v>
       </c>
       <c r="B132" s="70" t="str">
@@ -24853,13 +24861,13 @@
       </c>
       <c r="E132" s="85"/>
       <c r="F132" s="86">
-        <f>D132*E132*100</f>
+        <f t="shared" ref="F132:F195" si="7">D132*E132*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="84">
-        <f>A132+1</f>
+        <f t="shared" si="6"/>
         <v>132</v>
       </c>
       <c r="B133" s="70" t="str">
@@ -24876,13 +24884,13 @@
       </c>
       <c r="E133" s="85"/>
       <c r="F133" s="86">
-        <f>D133*E133*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="84">
-        <f>A133+1</f>
+        <f t="shared" si="6"/>
         <v>133</v>
       </c>
       <c r="B134" s="70" t="str">
@@ -24899,13 +24907,13 @@
       </c>
       <c r="E134" s="85"/>
       <c r="F134" s="86">
-        <f>D134*E134*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="84">
-        <f>A134+1</f>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="B135" s="70" t="str">
@@ -24922,13 +24930,13 @@
       </c>
       <c r="E135" s="85"/>
       <c r="F135" s="86">
-        <f>D135*E135*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="84">
-        <f>A135+1</f>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="B136" s="70" t="str">
@@ -24945,13 +24953,13 @@
       </c>
       <c r="E136" s="85"/>
       <c r="F136" s="86">
-        <f>D136*E136*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="84">
-        <f>A136+1</f>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="B137" s="70" t="str">
@@ -24968,13 +24976,13 @@
       </c>
       <c r="E137" s="85"/>
       <c r="F137" s="86">
-        <f>D137*E137*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="84">
-        <f>A137+1</f>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="B138" s="70" t="str">
@@ -24991,13 +24999,13 @@
       </c>
       <c r="E138" s="85"/>
       <c r="F138" s="86">
-        <f>D138*E138*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1">
       <c r="A139" s="84">
-        <f>A138+1</f>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="B139" s="70" t="str">
@@ -25014,13 +25022,13 @@
       </c>
       <c r="E139" s="85"/>
       <c r="F139" s="86">
-        <f>D139*E139*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="84">
-        <f>A139+1</f>
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="B140" s="70" t="str">
@@ -25037,13 +25045,13 @@
       </c>
       <c r="E140" s="85"/>
       <c r="F140" s="86">
-        <f>D140*E140*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="84">
-        <f>A140+1</f>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="B141" s="70" t="str">
@@ -25060,13 +25068,13 @@
       </c>
       <c r="E141" s="85"/>
       <c r="F141" s="86">
-        <f>D141*E141*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="84">
-        <f>A141+1</f>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="B142" s="70" t="str">
@@ -25083,13 +25091,13 @@
       </c>
       <c r="E142" s="85"/>
       <c r="F142" s="86">
-        <f>D142*E142*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1">
       <c r="A143" s="84">
-        <f>A142+1</f>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="B143" s="70" t="str">
@@ -25106,13 +25114,13 @@
       </c>
       <c r="E143" s="85"/>
       <c r="F143" s="86">
-        <f>D143*E143*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="84">
-        <f>A143+1</f>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="B144" s="70" t="str">
@@ -25129,13 +25137,13 @@
       </c>
       <c r="E144" s="85"/>
       <c r="F144" s="86">
-        <f>D144*E144*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="84">
-        <f>A144+1</f>
+        <f t="shared" si="6"/>
         <v>144</v>
       </c>
       <c r="B145" s="70" t="str">
@@ -25152,13 +25160,13 @@
       </c>
       <c r="E145" s="85"/>
       <c r="F145" s="86">
-        <f>D145*E145*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="84">
-        <f>A145+1</f>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="B146" s="70" t="str">
@@ -25175,13 +25183,13 @@
       </c>
       <c r="E146" s="85"/>
       <c r="F146" s="86">
-        <f>D146*E146*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="84">
-        <f>A146+1</f>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="B147" s="70" t="str">
@@ -25198,13 +25206,13 @@
       </c>
       <c r="E147" s="85"/>
       <c r="F147" s="86">
-        <f>D147*E147*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="84">
-        <f>A147+1</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="B148" s="70" t="str">
@@ -25221,13 +25229,13 @@
       </c>
       <c r="E148" s="85"/>
       <c r="F148" s="86">
-        <f>D148*E148*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="84">
-        <f>A148+1</f>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="B149" s="70" t="str">
@@ -25244,13 +25252,13 @@
       </c>
       <c r="E149" s="85"/>
       <c r="F149" s="86">
-        <f>D149*E149*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" hidden="1">
       <c r="A150" s="84">
-        <f>A149+1</f>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="B150" s="70" t="str">
@@ -25267,13 +25275,13 @@
       </c>
       <c r="E150" s="85"/>
       <c r="F150" s="86">
-        <f>D150*E150*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="84">
-        <f>A150+1</f>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="B151" s="70" t="str">
@@ -25292,13 +25300,13 @@
         <v>0.05</v>
       </c>
       <c r="F151" s="86">
-        <f>D151*E151*100</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:6" hidden="1">
       <c r="A152" s="84">
-        <f>A151+1</f>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="B152" s="70" t="str">
@@ -25315,13 +25323,13 @@
       </c>
       <c r="E152" s="85"/>
       <c r="F152" s="86">
-        <f>D152*E152*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" hidden="1">
       <c r="A153" s="84">
-        <f>A152+1</f>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="B153" s="70" t="str">
@@ -25338,13 +25346,13 @@
       </c>
       <c r="E153" s="85"/>
       <c r="F153" s="86">
-        <f>D153*E153*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="84">
-        <f>A153+1</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="B154" s="70" t="str">
@@ -25363,13 +25371,13 @@
         <v>0.05</v>
       </c>
       <c r="F154" s="86">
-        <f>D154*E154*100</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:6" hidden="1">
       <c r="A155" s="84">
-        <f>A154+1</f>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="B155" s="70" t="str">
@@ -25386,13 +25394,13 @@
       </c>
       <c r="E155" s="85"/>
       <c r="F155" s="86">
-        <f>D155*E155*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" hidden="1">
       <c r="A156" s="84">
-        <f>A155+1</f>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="B156" s="70" t="str">
@@ -25409,13 +25417,13 @@
       </c>
       <c r="E156" s="85"/>
       <c r="F156" s="86">
-        <f>D156*E156*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" hidden="1">
       <c r="A157" s="84">
-        <f>A156+1</f>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="B157" s="70" t="str">
@@ -25432,13 +25440,13 @@
       </c>
       <c r="E157" s="85"/>
       <c r="F157" s="86">
-        <f>D157*E157*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" hidden="1">
       <c r="A158" s="84">
-        <f>A157+1</f>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="B158" s="70" t="str">
@@ -25455,13 +25463,13 @@
       </c>
       <c r="E158" s="85"/>
       <c r="F158" s="86">
-        <f>D158*E158*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" hidden="1">
       <c r="A159" s="84">
-        <f>A158+1</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="B159" s="70" t="str">
@@ -25478,13 +25486,13 @@
       </c>
       <c r="E159" s="85"/>
       <c r="F159" s="86">
-        <f>D159*E159*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" hidden="1">
       <c r="A160" s="84">
-        <f>A159+1</f>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="B160" s="70" t="str">
@@ -25501,13 +25509,13 @@
       </c>
       <c r="E160" s="85"/>
       <c r="F160" s="86">
-        <f>D160*E160*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="84">
-        <f>A160+1</f>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="B161" s="70" t="str">
@@ -25524,13 +25532,13 @@
       </c>
       <c r="E161" s="85"/>
       <c r="F161" s="86">
-        <f>D161*E161*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="84">
-        <f>A161+1</f>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="B162" s="70" t="str">
@@ -25547,13 +25555,13 @@
       </c>
       <c r="E162" s="85"/>
       <c r="F162" s="86">
-        <f>D162*E162*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="84">
-        <f>A162+1</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="B163" s="70" t="str">
@@ -25570,13 +25578,13 @@
       </c>
       <c r="E163" s="85"/>
       <c r="F163" s="86">
-        <f>D163*E163*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="84">
-        <f>A163+1</f>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="B164" s="70" t="str">
@@ -25593,13 +25601,13 @@
       </c>
       <c r="E164" s="85"/>
       <c r="F164" s="86">
-        <f>D164*E164*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="84">
-        <f>A164+1</f>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="B165" s="70" t="str">
@@ -25616,13 +25624,13 @@
       </c>
       <c r="E165" s="85"/>
       <c r="F165" s="86">
-        <f>D165*E165*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="84">
-        <f>A165+1</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="B166" s="70" t="str">
@@ -25639,13 +25647,13 @@
       </c>
       <c r="E166" s="85"/>
       <c r="F166" s="86">
-        <f>D166*E166*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="84">
-        <f>A166+1</f>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="B167" s="70" t="str">
@@ -25662,13 +25670,13 @@
       </c>
       <c r="E167" s="85"/>
       <c r="F167" s="86">
-        <f>D167*E167*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="84">
-        <f>A167+1</f>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="B168" s="70" t="str">
@@ -25685,13 +25693,13 @@
       </c>
       <c r="E168" s="85"/>
       <c r="F168" s="86">
-        <f>D168*E168*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="84">
-        <f>A168+1</f>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="B169" s="70" t="str">
@@ -25708,13 +25716,13 @@
       </c>
       <c r="E169" s="85"/>
       <c r="F169" s="86">
-        <f>D169*E169*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" hidden="1">
       <c r="A170" s="84">
-        <f>A169+1</f>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="B170" s="70" t="str">
@@ -25731,13 +25739,13 @@
       </c>
       <c r="E170" s="85"/>
       <c r="F170" s="86">
-        <f>D170*E170*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="84">
-        <f>A170+1</f>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="B171" s="70" t="str">
@@ -25754,13 +25762,13 @@
       </c>
       <c r="E171" s="85"/>
       <c r="F171" s="86">
-        <f>D171*E171*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" hidden="1">
       <c r="A172" s="84">
-        <f>A171+1</f>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="B172" s="70" t="str">
@@ -25777,13 +25785,13 @@
       </c>
       <c r="E172" s="85"/>
       <c r="F172" s="86">
-        <f>D172*E172*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" hidden="1">
       <c r="A173" s="84">
-        <f>A172+1</f>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="B173" s="70" t="str">
@@ -25800,13 +25808,13 @@
       </c>
       <c r="E173" s="85"/>
       <c r="F173" s="86">
-        <f>D173*E173*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" hidden="1">
       <c r="A174" s="84">
-        <f>A173+1</f>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="B174" s="70" t="str">
@@ -25823,13 +25831,13 @@
       </c>
       <c r="E174" s="85"/>
       <c r="F174" s="86">
-        <f>D174*E174*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" hidden="1">
       <c r="A175" s="84">
-        <f>A174+1</f>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="B175" s="70" t="str">
@@ -25846,13 +25854,13 @@
       </c>
       <c r="E175" s="85"/>
       <c r="F175" s="86">
-        <f>D175*E175*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="84">
-        <f>A175+1</f>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="B176" s="70" t="str">
@@ -25869,13 +25877,13 @@
       </c>
       <c r="E176" s="85"/>
       <c r="F176" s="86">
-        <f>D176*E176*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" hidden="1">
       <c r="A177" s="84">
-        <f>A176+1</f>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="B177" s="70" t="str">
@@ -25892,13 +25900,13 @@
       </c>
       <c r="E177" s="85"/>
       <c r="F177" s="86">
-        <f>D177*E177*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" hidden="1">
       <c r="A178" s="84">
-        <f>A177+1</f>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="B178" s="70" t="str">
@@ -25915,13 +25923,13 @@
       </c>
       <c r="E178" s="85"/>
       <c r="F178" s="86">
-        <f>D178*E178*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" hidden="1">
       <c r="A179" s="84">
-        <f>A178+1</f>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="B179" s="70" t="str">
@@ -25938,13 +25946,13 @@
       </c>
       <c r="E179" s="85"/>
       <c r="F179" s="86">
-        <f>D179*E179*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" hidden="1">
       <c r="A180" s="84">
-        <f>A179+1</f>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="B180" s="70" t="str">
@@ -25961,13 +25969,13 @@
       </c>
       <c r="E180" s="85"/>
       <c r="F180" s="86">
-        <f>D180*E180*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" hidden="1">
       <c r="A181" s="84">
-        <f>A180+1</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="B181" s="70" t="str">
@@ -25984,13 +25992,13 @@
       </c>
       <c r="E181" s="85"/>
       <c r="F181" s="86">
-        <f>D181*E181*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" hidden="1">
       <c r="A182" s="84">
-        <f>A181+1</f>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="B182" s="70" t="str">
@@ -26007,13 +26015,13 @@
       </c>
       <c r="E182" s="85"/>
       <c r="F182" s="86">
-        <f>D182*E182*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" hidden="1">
       <c r="A183" s="84">
-        <f>A182+1</f>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="B183" s="70" t="str">
@@ -26030,13 +26038,13 @@
       </c>
       <c r="E183" s="85"/>
       <c r="F183" s="86">
-        <f>D183*E183*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6" hidden="1">
       <c r="A184" s="84">
-        <f>A183+1</f>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="B184" s="70" t="str">
@@ -26053,13 +26061,13 @@
       </c>
       <c r="E184" s="85"/>
       <c r="F184" s="86">
-        <f>D184*E184*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" hidden="1">
       <c r="A185" s="84">
-        <f>A184+1</f>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="B185" s="70" t="str">
@@ -26076,13 +26084,13 @@
       </c>
       <c r="E185" s="85"/>
       <c r="F185" s="86">
-        <f>D185*E185*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" hidden="1">
       <c r="A186" s="84">
-        <f>A185+1</f>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="B186" s="70" t="str">
@@ -26099,13 +26107,13 @@
       </c>
       <c r="E186" s="85"/>
       <c r="F186" s="86">
-        <f>D186*E186*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" hidden="1">
       <c r="A187" s="84">
-        <f>A186+1</f>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="B187" s="70" t="str">
@@ -26122,13 +26130,13 @@
       </c>
       <c r="E187" s="85"/>
       <c r="F187" s="86">
-        <f>D187*E187*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" hidden="1">
       <c r="A188" s="84">
-        <f>A187+1</f>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="B188" s="70" t="str">
@@ -26145,13 +26153,13 @@
       </c>
       <c r="E188" s="85"/>
       <c r="F188" s="86">
-        <f>D188*E188*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" hidden="1">
       <c r="A189" s="84">
-        <f>A188+1</f>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="B189" s="70" t="str">
@@ -26168,13 +26176,13 @@
       </c>
       <c r="E189" s="85"/>
       <c r="F189" s="86">
-        <f>D189*E189*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6" hidden="1">
       <c r="A190" s="84">
-        <f>A189+1</f>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="B190" s="70" t="str">
@@ -26191,13 +26199,13 @@
       </c>
       <c r="E190" s="85"/>
       <c r="F190" s="86">
-        <f>D190*E190*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" hidden="1">
       <c r="A191" s="84">
-        <f>A190+1</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="B191" s="70" t="str">
@@ -26214,13 +26222,13 @@
       </c>
       <c r="E191" s="85"/>
       <c r="F191" s="86">
-        <f>D191*E191*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6" hidden="1">
       <c r="A192" s="84">
-        <f>A191+1</f>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="B192" s="70" t="str">
@@ -26237,13 +26245,13 @@
       </c>
       <c r="E192" s="85"/>
       <c r="F192" s="86">
-        <f>D192*E192*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6" hidden="1">
       <c r="A193" s="84">
-        <f>A192+1</f>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="B193" s="70" t="str">
@@ -26260,13 +26268,13 @@
       </c>
       <c r="E193" s="85"/>
       <c r="F193" s="86">
-        <f>D193*E193*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" hidden="1">
       <c r="A194" s="84">
-        <f>A193+1</f>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="B194" s="70" t="str">
@@ -26283,13 +26291,13 @@
       </c>
       <c r="E194" s="85"/>
       <c r="F194" s="86">
-        <f>D194*E194*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" hidden="1">
       <c r="A195" s="84">
-        <f>A194+1</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="B195" s="70" t="str">
@@ -26306,13 +26314,13 @@
       </c>
       <c r="E195" s="85"/>
       <c r="F195" s="86">
-        <f>D195*E195*100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" hidden="1">
       <c r="A196" s="84">
-        <f>A195+1</f>
+        <f t="shared" ref="A196:A206" si="8">A195+1</f>
         <v>195</v>
       </c>
       <c r="B196" s="70" t="str">
@@ -26329,13 +26337,13 @@
       </c>
       <c r="E196" s="85"/>
       <c r="F196" s="86">
-        <f>D196*E196*100</f>
+        <f t="shared" ref="F196:F259" si="9">D196*E196*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" hidden="1">
       <c r="A197" s="84">
-        <f>A196+1</f>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="B197" s="70" t="str">
@@ -26352,13 +26360,13 @@
       </c>
       <c r="E197" s="85"/>
       <c r="F197" s="86">
-        <f>D197*E197*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" hidden="1">
       <c r="A198" s="84">
-        <f>A197+1</f>
+        <f t="shared" si="8"/>
         <v>197</v>
       </c>
       <c r="B198" s="70" t="str">
@@ -26375,13 +26383,13 @@
       </c>
       <c r="E198" s="85"/>
       <c r="F198" s="86">
-        <f>D198*E198*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" hidden="1">
       <c r="A199" s="84">
-        <f>A198+1</f>
+        <f t="shared" si="8"/>
         <v>198</v>
       </c>
       <c r="B199" s="70" t="str">
@@ -26398,13 +26406,13 @@
       </c>
       <c r="E199" s="85"/>
       <c r="F199" s="86">
-        <f>D199*E199*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" hidden="1">
       <c r="A200" s="84">
-        <f>A199+1</f>
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
       <c r="B200" s="70" t="str">
@@ -26421,13 +26429,13 @@
       </c>
       <c r="E200" s="85"/>
       <c r="F200" s="86">
-        <f>D200*E200*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" hidden="1">
       <c r="A201" s="84">
-        <f>A200+1</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="B201" s="70" t="str">
@@ -26444,13 +26452,13 @@
       </c>
       <c r="E201" s="85"/>
       <c r="F201" s="86">
-        <f>D201*E201*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" hidden="1">
       <c r="A202" s="84">
-        <f>A201+1</f>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="B202" s="70" t="str">
@@ -26467,13 +26475,13 @@
       </c>
       <c r="E202" s="85"/>
       <c r="F202" s="86">
-        <f>D202*E202*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" hidden="1">
       <c r="A203" s="84">
-        <f>A202+1</f>
+        <f t="shared" si="8"/>
         <v>202</v>
       </c>
       <c r="B203" s="70" t="str">
@@ -26490,13 +26498,13 @@
       </c>
       <c r="E203" s="85"/>
       <c r="F203" s="86">
-        <f>D203*E203*100</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="84">
-        <f>A203+1</f>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="B204" s="70" t="str">
@@ -26515,13 +26523,13 @@
         <v>0.01</v>
       </c>
       <c r="F204" s="86">
-        <f>D204*E204*100</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="84">
-        <f>A204+1</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="B205" s="70" t="str">
@@ -26540,13 +26548,13 @@
         <v>0.01</v>
       </c>
       <c r="F205" s="86">
-        <f>D205*E205*100</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="84">
-        <f>A205+1</f>
+        <f t="shared" si="8"/>
         <v>205</v>
       </c>
       <c r="B206" s="70" t="str">
@@ -26565,13 +26573,13 @@
         <v>0.01</v>
       </c>
       <c r="F206" s="86">
-        <f>D206*E206*100</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:6" hidden="1">
       <c r="A207" s="84">
-        <f t="shared" ref="A195:A258" si="2">A206+1</f>
+        <f t="shared" ref="A207:A258" si="10">A206+1</f>
         <v>206</v>
       </c>
       <c r="B207" s="70" t="str">
@@ -26588,13 +26596,13 @@
       </c>
       <c r="E207" s="85"/>
       <c r="F207" s="86">
-        <f t="shared" ref="F194:F257" si="3">D207*E207*100</f>
+        <f t="shared" ref="F207:F257" si="11">D207*E207*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" hidden="1">
       <c r="A208" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="B208" s="70" t="str">
@@ -26611,13 +26619,13 @@
       </c>
       <c r="E208" s="85"/>
       <c r="F208" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" hidden="1">
       <c r="A209" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>208</v>
       </c>
       <c r="B209" s="70" t="str">
@@ -26634,13 +26642,13 @@
       </c>
       <c r="E209" s="85"/>
       <c r="F209" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" hidden="1">
       <c r="A210" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>209</v>
       </c>
       <c r="B210" s="70" t="str">
@@ -26657,13 +26665,13 @@
       </c>
       <c r="E210" s="85"/>
       <c r="F210" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" hidden="1">
       <c r="A211" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="B211" s="70" t="str">
@@ -26680,13 +26688,13 @@
       </c>
       <c r="E211" s="85"/>
       <c r="F211" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" hidden="1">
       <c r="A212" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>211</v>
       </c>
       <c r="B212" s="70" t="str">
@@ -26703,13 +26711,13 @@
       </c>
       <c r="E212" s="85"/>
       <c r="F212" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" hidden="1">
       <c r="A213" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="B213" s="70" t="str">
@@ -26726,13 +26734,13 @@
       </c>
       <c r="E213" s="85"/>
       <c r="F213" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" hidden="1">
       <c r="A214" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="B214" s="70" t="str">
@@ -26749,13 +26757,13 @@
       </c>
       <c r="E214" s="85"/>
       <c r="F214" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" hidden="1">
       <c r="A215" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>214</v>
       </c>
       <c r="B215" s="70" t="str">
@@ -26772,13 +26780,13 @@
       </c>
       <c r="E215" s="85"/>
       <c r="F215" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" hidden="1">
       <c r="A216" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>215</v>
       </c>
       <c r="B216" s="70" t="str">
@@ -26795,13 +26803,13 @@
       </c>
       <c r="E216" s="85"/>
       <c r="F216" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" hidden="1">
       <c r="A217" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="B217" s="70" t="str">
@@ -26818,13 +26826,13 @@
       </c>
       <c r="E217" s="85"/>
       <c r="F217" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" hidden="1">
       <c r="A218" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="B218" s="70" t="str">
@@ -26841,13 +26849,13 @@
       </c>
       <c r="E218" s="85"/>
       <c r="F218" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" hidden="1">
       <c r="A219" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>218</v>
       </c>
       <c r="B219" s="70" t="str">
@@ -26864,13 +26872,13 @@
       </c>
       <c r="E219" s="85"/>
       <c r="F219" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" hidden="1">
       <c r="A220" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="B220" s="70" t="str">
@@ -26887,13 +26895,13 @@
       </c>
       <c r="E220" s="85"/>
       <c r="F220" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" hidden="1">
       <c r="A221" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="B221" s="70" t="str">
@@ -26910,13 +26918,13 @@
       </c>
       <c r="E221" s="85"/>
       <c r="F221" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" hidden="1">
       <c r="A222" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>221</v>
       </c>
       <c r="B222" s="70" t="str">
@@ -26933,13 +26941,13 @@
       </c>
       <c r="E222" s="85"/>
       <c r="F222" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6" hidden="1">
       <c r="A223" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="B223" s="70" t="str">
@@ -26956,13 +26964,13 @@
       </c>
       <c r="E223" s="85"/>
       <c r="F223" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" hidden="1">
       <c r="A224" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>223</v>
       </c>
       <c r="B224" s="70" t="str">
@@ -26979,13 +26987,13 @@
       </c>
       <c r="E224" s="85"/>
       <c r="F224" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" hidden="1">
       <c r="A225" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="B225" s="70" t="str">
@@ -27002,13 +27010,13 @@
       </c>
       <c r="E225" s="85"/>
       <c r="F225" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" hidden="1">
       <c r="A226" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="B226" s="70" t="str">
@@ -27025,13 +27033,13 @@
       </c>
       <c r="E226" s="85"/>
       <c r="F226" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" hidden="1">
       <c r="A227" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>226</v>
       </c>
       <c r="B227" s="70" t="str">
@@ -27048,13 +27056,13 @@
       </c>
       <c r="E227" s="85"/>
       <c r="F227" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" hidden="1">
       <c r="A228" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>227</v>
       </c>
       <c r="B228" s="70" t="str">
@@ -27071,13 +27079,13 @@
       </c>
       <c r="E228" s="85"/>
       <c r="F228" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" hidden="1">
       <c r="A229" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="B229" s="70" t="str">
@@ -27094,13 +27102,13 @@
       </c>
       <c r="E229" s="85"/>
       <c r="F229" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" hidden="1">
       <c r="A230" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>229</v>
       </c>
       <c r="B230" s="70" t="str">
@@ -27117,13 +27125,13 @@
       </c>
       <c r="E230" s="85"/>
       <c r="F230" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" hidden="1">
       <c r="A231" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>230</v>
       </c>
       <c r="B231" s="70" t="str">
@@ -27140,13 +27148,13 @@
       </c>
       <c r="E231" s="85"/>
       <c r="F231" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" hidden="1">
       <c r="A232" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="B232" s="70" t="str">
@@ -27163,13 +27171,13 @@
       </c>
       <c r="E232" s="85"/>
       <c r="F232" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" hidden="1">
       <c r="A233" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>232</v>
       </c>
       <c r="B233" s="70" t="str">
@@ -27186,13 +27194,13 @@
       </c>
       <c r="E233" s="85"/>
       <c r="F233" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" hidden="1">
       <c r="A234" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="B234" s="70" t="str">
@@ -27209,13 +27217,13 @@
       </c>
       <c r="E234" s="85"/>
       <c r="F234" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" hidden="1">
       <c r="A235" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="B235" s="70" t="str">
@@ -27232,13 +27240,13 @@
       </c>
       <c r="E235" s="85"/>
       <c r="F235" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" hidden="1">
       <c r="A236" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>235</v>
       </c>
       <c r="B236" s="70" t="str">
@@ -27255,13 +27263,13 @@
       </c>
       <c r="E236" s="85"/>
       <c r="F236" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" hidden="1">
       <c r="A237" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>236</v>
       </c>
       <c r="B237" s="70" t="str">
@@ -27278,13 +27286,13 @@
       </c>
       <c r="E237" s="85"/>
       <c r="F237" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6" hidden="1">
       <c r="A238" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="B238" s="70" t="str">
@@ -27301,13 +27309,13 @@
       </c>
       <c r="E238" s="85"/>
       <c r="F238" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" hidden="1">
       <c r="A239" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="B239" s="70" t="str">
@@ -27324,13 +27332,13 @@
       </c>
       <c r="E239" s="85"/>
       <c r="F239" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" hidden="1">
       <c r="A240" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>239</v>
       </c>
       <c r="B240" s="70" t="str">
@@ -27347,13 +27355,13 @@
       </c>
       <c r="E240" s="85"/>
       <c r="F240" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6" hidden="1">
       <c r="A241" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="B241" s="70" t="str">
@@ -27370,13 +27378,13 @@
       </c>
       <c r="E241" s="85"/>
       <c r="F241" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" hidden="1">
       <c r="A242" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>241</v>
       </c>
       <c r="B242" s="70" t="str">
@@ -27393,13 +27401,13 @@
       </c>
       <c r="E242" s="85"/>
       <c r="F242" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6" hidden="1">
       <c r="A243" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>242</v>
       </c>
       <c r="B243" s="70" t="str">
@@ -27416,13 +27424,13 @@
       </c>
       <c r="E243" s="85"/>
       <c r="F243" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6" hidden="1">
       <c r="A244" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="B244" s="70" t="str">
@@ -27439,13 +27447,13 @@
       </c>
       <c r="E244" s="85"/>
       <c r="F244" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" hidden="1">
       <c r="A245" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>244</v>
       </c>
       <c r="B245" s="70" t="str">
@@ -27462,13 +27470,13 @@
       </c>
       <c r="E245" s="85"/>
       <c r="F245" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" hidden="1">
       <c r="A246" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
       <c r="B246" s="70" t="str">
@@ -27485,13 +27493,13 @@
       </c>
       <c r="E246" s="85"/>
       <c r="F246" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" hidden="1">
       <c r="A247" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="B247" s="70" t="str">
@@ -27508,13 +27516,13 @@
       </c>
       <c r="E247" s="85"/>
       <c r="F247" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" hidden="1">
       <c r="A248" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>247</v>
       </c>
       <c r="B248" s="70" t="str">
@@ -27531,13 +27539,13 @@
       </c>
       <c r="E248" s="85"/>
       <c r="F248" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" hidden="1">
       <c r="A249" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="B249" s="70" t="str">
@@ -27554,13 +27562,13 @@
       </c>
       <c r="E249" s="85"/>
       <c r="F249" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6" hidden="1">
       <c r="A250" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="B250" s="70" t="str">
@@ -27577,13 +27585,13 @@
       </c>
       <c r="E250" s="85"/>
       <c r="F250" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" hidden="1">
       <c r="A251" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="B251" s="70" t="str">
@@ -27600,13 +27608,13 @@
       </c>
       <c r="E251" s="85"/>
       <c r="F251" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" hidden="1">
       <c r="A252" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>251</v>
       </c>
       <c r="B252" s="70" t="str">
@@ -27623,13 +27631,13 @@
       </c>
       <c r="E252" s="85"/>
       <c r="F252" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6" hidden="1">
       <c r="A253" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="B253" s="70" t="str">
@@ -27646,13 +27654,13 @@
       </c>
       <c r="E253" s="85"/>
       <c r="F253" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" hidden="1">
       <c r="A254" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="B254" s="70" t="str">
@@ -27669,13 +27677,13 @@
       </c>
       <c r="E254" s="85"/>
       <c r="F254" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" hidden="1">
       <c r="A255" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>254</v>
       </c>
       <c r="B255" s="70" t="str">
@@ -27692,13 +27700,13 @@
       </c>
       <c r="E255" s="85"/>
       <c r="F255" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" hidden="1">
       <c r="A256" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="B256" s="70" t="str">
@@ -27715,13 +27723,13 @@
       </c>
       <c r="E256" s="85"/>
       <c r="F256" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" hidden="1">
       <c r="A257" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="B257" s="70" t="str">
@@ -27738,13 +27746,13 @@
       </c>
       <c r="E257" s="85"/>
       <c r="F257" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" hidden="1">
       <c r="A258" s="84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>257</v>
       </c>
       <c r="B258" s="70" t="str">
@@ -27761,13 +27769,13 @@
       </c>
       <c r="E258" s="85"/>
       <c r="F258" s="86">
-        <f t="shared" ref="F258:F283" si="4">D258*E258*100</f>
+        <f t="shared" ref="F258:F283" si="12">D258*E258*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6" hidden="1">
       <c r="A259" s="84">
-        <f t="shared" ref="A259:A283" si="5">A258+1</f>
+        <f t="shared" ref="A259:A283" si="13">A258+1</f>
         <v>258</v>
       </c>
       <c r="B259" s="70" t="str">
@@ -27784,13 +27792,13 @@
       </c>
       <c r="E259" s="85"/>
       <c r="F259" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6" hidden="1">
       <c r="A260" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>259</v>
       </c>
       <c r="B260" s="70" t="str">
@@ -27807,13 +27815,13 @@
       </c>
       <c r="E260" s="85"/>
       <c r="F260" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" hidden="1">
       <c r="A261" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>260</v>
       </c>
       <c r="B261" s="70" t="str">
@@ -27830,13 +27838,13 @@
       </c>
       <c r="E261" s="85"/>
       <c r="F261" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" hidden="1">
       <c r="A262" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>261</v>
       </c>
       <c r="B262" s="70" t="str">
@@ -27853,13 +27861,13 @@
       </c>
       <c r="E262" s="85"/>
       <c r="F262" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" hidden="1">
       <c r="A263" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>262</v>
       </c>
       <c r="B263" s="70" t="str">
@@ -27876,13 +27884,13 @@
       </c>
       <c r="E263" s="85"/>
       <c r="F263" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" hidden="1">
       <c r="A264" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>263</v>
       </c>
       <c r="B264" s="70" t="str">
@@ -27899,13 +27907,13 @@
       </c>
       <c r="E264" s="85"/>
       <c r="F264" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6" hidden="1">
       <c r="A265" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>264</v>
       </c>
       <c r="B265" s="70" t="str">
@@ -27922,13 +27930,13 @@
       </c>
       <c r="E265" s="85"/>
       <c r="F265" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" hidden="1">
       <c r="A266" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>265</v>
       </c>
       <c r="B266" s="70" t="str">
@@ -27945,13 +27953,13 @@
       </c>
       <c r="E266" s="85"/>
       <c r="F266" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" hidden="1">
       <c r="A267" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>266</v>
       </c>
       <c r="B267" s="70" t="str">
@@ -27968,13 +27976,13 @@
       </c>
       <c r="E267" s="85"/>
       <c r="F267" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" hidden="1">
       <c r="A268" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>267</v>
       </c>
       <c r="B268" s="70" t="str">
@@ -27991,13 +27999,13 @@
       </c>
       <c r="E268" s="85"/>
       <c r="F268" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" hidden="1">
       <c r="A269" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>268</v>
       </c>
       <c r="B269" s="70" t="str">
@@ -28014,13 +28022,13 @@
       </c>
       <c r="E269" s="85"/>
       <c r="F269" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" hidden="1">
       <c r="A270" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>269</v>
       </c>
       <c r="B270" s="70" t="str">
@@ -28037,13 +28045,13 @@
       </c>
       <c r="E270" s="85"/>
       <c r="F270" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6" hidden="1">
       <c r="A271" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>270</v>
       </c>
       <c r="B271" s="70" t="str">
@@ -28060,13 +28068,13 @@
       </c>
       <c r="E271" s="85"/>
       <c r="F271" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6" hidden="1">
       <c r="A272" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>271</v>
       </c>
       <c r="B272" s="70" t="str">
@@ -28083,13 +28091,13 @@
       </c>
       <c r="E272" s="85"/>
       <c r="F272" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6" hidden="1">
       <c r="A273" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
       <c r="B273" s="70" t="str">
@@ -28106,13 +28114,13 @@
       </c>
       <c r="E273" s="85"/>
       <c r="F273" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6" hidden="1">
       <c r="A274" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>273</v>
       </c>
       <c r="B274" s="70" t="str">
@@ -28129,13 +28137,13 @@
       </c>
       <c r="E274" s="85"/>
       <c r="F274" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" hidden="1">
       <c r="A275" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>274</v>
       </c>
       <c r="B275" s="70" t="str">
@@ -28152,13 +28160,13 @@
       </c>
       <c r="E275" s="85"/>
       <c r="F275" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" hidden="1">
       <c r="A276" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>275</v>
       </c>
       <c r="B276" s="70" t="str">
@@ -28175,13 +28183,13 @@
       </c>
       <c r="E276" s="85"/>
       <c r="F276" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" hidden="1">
       <c r="A277" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>276</v>
       </c>
       <c r="B277" s="70" t="str">
@@ -28198,13 +28206,13 @@
       </c>
       <c r="E277" s="85"/>
       <c r="F277" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6" hidden="1">
       <c r="A278" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>277</v>
       </c>
       <c r="B278" s="70" t="str">
@@ -28221,13 +28229,13 @@
       </c>
       <c r="E278" s="85"/>
       <c r="F278" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6" hidden="1">
       <c r="A279" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>278</v>
       </c>
       <c r="B279" s="70" t="str">
@@ -28244,13 +28252,13 @@
       </c>
       <c r="E279" s="85"/>
       <c r="F279" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" hidden="1">
       <c r="A280" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>279</v>
       </c>
       <c r="B280" s="70" t="str">
@@ -28267,13 +28275,13 @@
       </c>
       <c r="E280" s="85"/>
       <c r="F280" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6" hidden="1">
       <c r="A281" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="B281" s="70" t="str">
@@ -28290,13 +28298,13 @@
       </c>
       <c r="E281" s="85"/>
       <c r="F281" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" hidden="1">
       <c r="A282" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>281</v>
       </c>
       <c r="B282" s="70" t="str">
@@ -28313,13 +28321,13 @@
       </c>
       <c r="E282" s="85"/>
       <c r="F282" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" hidden="1">
       <c r="A283" s="84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>282</v>
       </c>
       <c r="B283" s="70" t="str">
@@ -28336,7 +28344,7 @@
       </c>
       <c r="E283" s="85"/>
       <c r="F283" s="86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -33037,17 +33045,17 @@
       <c r="F1000" s="89"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F480">
+  <autoFilter ref="A1:F480" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:F480">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F480">
       <sortCondition ref="B2:B480"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A4:F206">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F206">
     <sortCondition descending="1" ref="F4:F206"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
